--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_15_26.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_15_26.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1626601.390328507</v>
+        <v>1623915.982095064</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673449</v>
+        <v>603248.493767343</v>
       </c>
     </row>
     <row r="9">
@@ -665,19 +665,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="F2" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>12.83417464571001</v>
+        <v>221.0427070190019</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>115.3066195468971</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -710,16 +710,16 @@
         <v>152.7676931992223</v>
       </c>
       <c r="T2" t="n">
-        <v>212.2897156032232</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>111.2254363169657</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>263.7138800015061</v>
       </c>
       <c r="W2" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -735,19 +735,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -783,25 +783,25 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>18.1525249552777</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>147.1499354121988</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>194.8409875848768</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>1.219197308813198</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>67.05872474918807</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -820,22 +820,22 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.8836670385466</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>152.3821593358568</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>122.1505735248086</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>15.07219909888211</v>
@@ -862,25 +862,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>127.5046028836639</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>204.7191642435938</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>89.28741136156206</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>223.875655355638</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -902,10 +902,10 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>164.1935474770549</v>
+        <v>170.5967568330366</v>
       </c>
       <c r="F5" t="n">
-        <v>383.477334478439</v>
+        <v>383.4773344784367</v>
       </c>
       <c r="G5" t="n">
         <v>12.41971906875771</v>
@@ -947,22 +947,22 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>210.4754363151146</v>
       </c>
       <c r="U5" t="n">
-        <v>251.1150114321263</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>383.4773344784367</v>
       </c>
     </row>
     <row r="6">
@@ -993,7 +993,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>36.28687735603334</v>
+        <v>29.42955821272626</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,10 +1020,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>4.384369338296125</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>131.7892769505318</v>
+        <v>143.0309654321256</v>
       </c>
       <c r="T6" t="n">
         <v>193.9471662361903</v>
@@ -1057,16 +1057,16 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>133.0221269533638</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>39.59472773589737</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.6977565348686</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1075,7 +1075,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>1.928326488848057</v>
+        <v>1.928326488848313</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1120,7 +1120,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1142,16 +1142,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>233.8447291789213</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>11.54770277295399</v>
+        <v>100.8006479184425</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,7 +1181,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1196,7 +1196,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1230,7 +1230,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1288,7 +1288,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>124.0961330064684</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -1297,7 +1297,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1345,7 +1345,7 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>90.69811547110066</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -1379,13 +1379,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>122.714798931826</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
         <v>410.3498598144164</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>288.7511433632822</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1421,16 +1421,16 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>201.4146274292355</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>250.949422691779</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>305.495464443634</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -1464,10 +1464,10 @@
         <v>134.6934939670195</v>
       </c>
       <c r="H12" t="n">
-        <v>86.64179915749278</v>
+        <v>86.64179915749273</v>
       </c>
       <c r="I12" t="n">
-        <v>8.282546271490091</v>
+        <v>8.282546271489835</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1497,10 +1497,10 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>122.4601525254634</v>
+        <v>122.4601525254633</v>
       </c>
       <c r="T12" t="n">
-        <v>189.4832755487706</v>
+        <v>189.4832755487705</v>
       </c>
       <c r="U12" t="n">
         <v>225.7670384496465</v>
@@ -1531,16 +1531,16 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>15.86245215173888</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>128.930768425123</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1573,13 +1573,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>77.39811087628534</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>185.2985930389547</v>
       </c>
       <c r="T13" t="n">
-        <v>218.4529121465558</v>
+        <v>218.4529121465557</v>
       </c>
       <c r="U13" t="n">
         <v>286.1978462422561</v>
@@ -1622,7 +1622,7 @@
         <v>409.8432760127576</v>
       </c>
       <c r="H14" t="n">
-        <v>283.5630920045443</v>
+        <v>233.2715658672527</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,10 +1655,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>84.61259060081962</v>
+        <v>84.61259060081963</v>
       </c>
       <c r="T14" t="n">
-        <v>148.9055307001846</v>
+        <v>199.1970568374742</v>
       </c>
       <c r="U14" t="n">
         <v>250.9088959876463</v>
@@ -1701,7 +1701,7 @@
         <v>134.4224477376697</v>
       </c>
       <c r="H15" t="n">
-        <v>84.02406320561455</v>
+        <v>84.02406320561457</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1768,19 +1768,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>165.5420528771669</v>
       </c>
       <c r="H16" t="n">
-        <v>140.4539897919539</v>
+        <v>64.44601915223787</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,16 +1810,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>67.18075159108356</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.338488358459</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4819944627618</v>
       </c>
       <c r="U16" t="n">
-        <v>235.708231633297</v>
+        <v>286.1854515484204</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>34.32106446353022</v>
+        <v>34.32106446352878</v>
       </c>
       <c r="T17" t="n">
         <v>199.1970568374742</v>
@@ -1938,7 +1938,7 @@
         <v>134.4224477376697</v>
       </c>
       <c r="H18" t="n">
-        <v>84.02406320561455</v>
+        <v>84.02406320561457</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1999,19 +1999,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>165.0247882786907</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>39.74159651269579</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>165.5420528771669</v>
@@ -2050,7 +2050,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.338488358459</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>217.4819944627618</v>
@@ -2078,7 +2078,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>332.4423155261912</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>84.61259060081962</v>
+        <v>34.32106446352826</v>
       </c>
       <c r="T20" t="n">
         <v>199.1970568374742</v>
@@ -2236,19 +2236,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>171.0047611333052</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>165.5420528771669</v>
@@ -2287,7 +2287,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.338488358459</v>
+        <v>47.90307973895504</v>
       </c>
       <c r="T22" t="n">
         <v>217.4819944627618</v>
@@ -2324,7 +2324,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722625</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569543</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2479,22 +2479,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>85.08368458989452</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>9.146142788179482</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2552,7 +2552,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634807</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2713,7 +2713,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>45.66054613217634</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -2728,10 +2728,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>99.97427419833875</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695611</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2959,16 +2959,16 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>83.06560892428179</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>9.146142788179088</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634807</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3190,13 +3190,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
@@ -3205,7 +3205,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3241,16 +3241,16 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>245.8796921214426</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>168.4805514670954</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3326,7 +3326,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
@@ -3436,13 +3436,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>27.02919805176261</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428223</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3506,7 +3506,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.6830416206838</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
@@ -3518,7 +3518,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444135</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3658,16 +3658,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>132.134181522271</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>73.74785292486236</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3679,7 +3679,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,13 +3706,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695597</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3904,7 +3904,7 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>83.06560892428401</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -3913,7 +3913,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>83.06560892428179</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3974,7 +3974,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634819</v>
+        <v>382.7338416634807</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4138,13 +4138,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>11.56087338713856</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
@@ -4180,13 +4180,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
@@ -4198,7 +4198,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>23.05950344416408</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -4304,25 +4304,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>41.00642392276842</v>
+        <v>634.167062227511</v>
       </c>
       <c r="C2" t="n">
-        <v>41.00642392276842</v>
+        <v>634.167062227511</v>
       </c>
       <c r="D2" t="n">
-        <v>41.00642392276842</v>
+        <v>634.167062227511</v>
       </c>
       <c r="E2" t="n">
-        <v>41.00642392276842</v>
+        <v>367.789405660333</v>
       </c>
       <c r="F2" t="n">
-        <v>34.06092317356495</v>
+        <v>360.8439049111296</v>
       </c>
       <c r="G2" t="n">
-        <v>21.09711040012049</v>
+        <v>137.5684432757742</v>
       </c>
       <c r="H2" t="n">
-        <v>21.09711040012049</v>
+        <v>137.5684432757742</v>
       </c>
       <c r="I2" t="n">
         <v>21.09711040012049</v>
@@ -4331,19 +4331,19 @@
         <v>49.28269087917624</v>
       </c>
       <c r="K2" t="n">
-        <v>142.2640879052544</v>
+        <v>142.2640879052547</v>
       </c>
       <c r="L2" t="n">
-        <v>294.5174947515908</v>
+        <v>294.5174947515912</v>
       </c>
       <c r="M2" t="n">
-        <v>495.5981834030606</v>
+        <v>495.5981834030611</v>
       </c>
       <c r="N2" t="n">
-        <v>704.5463761991319</v>
+        <v>704.5463761991323</v>
       </c>
       <c r="O2" t="n">
-        <v>888.5149683358416</v>
+        <v>888.5149683358418</v>
       </c>
       <c r="P2" t="n">
         <v>1011.026904601763</v>
@@ -4358,22 +4358,22 @@
         <v>900.5447187946889</v>
       </c>
       <c r="T2" t="n">
-        <v>686.1106626298169</v>
+        <v>900.5447187946889</v>
       </c>
       <c r="U2" t="n">
-        <v>573.7617370571243</v>
+        <v>900.5447187946889</v>
       </c>
       <c r="V2" t="n">
-        <v>307.3840804899464</v>
+        <v>634.167062227511</v>
       </c>
       <c r="W2" t="n">
-        <v>41.00642392276842</v>
+        <v>634.167062227511</v>
       </c>
       <c r="X2" t="n">
-        <v>41.00642392276842</v>
+        <v>634.167062227511</v>
       </c>
       <c r="Y2" t="n">
-        <v>41.00642392276842</v>
+        <v>634.167062227511</v>
       </c>
     </row>
     <row r="3">
@@ -4383,16 +4383,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>180.334565405576</v>
+        <v>650.2565623210693</v>
       </c>
       <c r="C3" t="n">
-        <v>180.334565405576</v>
+        <v>475.8035330399423</v>
       </c>
       <c r="D3" t="n">
-        <v>180.334565405576</v>
+        <v>326.869123378691</v>
       </c>
       <c r="E3" t="n">
-        <v>21.09711040012049</v>
+        <v>167.6316683732355</v>
       </c>
       <c r="F3" t="n">
         <v>21.09711040012049</v>
@@ -4407,22 +4407,22 @@
         <v>21.09711040012049</v>
       </c>
       <c r="J3" t="n">
-        <v>117.4455628004806</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="K3" t="n">
-        <v>192.1295835699347</v>
+        <v>95.78113116957459</v>
       </c>
       <c r="L3" t="n">
-        <v>338.8740072302313</v>
+        <v>242.5255548298712</v>
       </c>
       <c r="M3" t="n">
-        <v>529.4746963267551</v>
+        <v>433.126243926395</v>
       </c>
       <c r="N3" t="n">
-        <v>739.52866342936</v>
+        <v>643.1802110289999</v>
       </c>
       <c r="O3" t="n">
-        <v>909.4672107560897</v>
+        <v>813.1187583557296</v>
       </c>
       <c r="P3" t="n">
         <v>1026.524810789493</v>
@@ -4431,28 +4431,28 @@
         <v>1054.855520006025</v>
       </c>
       <c r="R3" t="n">
-        <v>1036.519636212815</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="S3" t="n">
-        <v>887.8833378166544</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="T3" t="n">
-        <v>691.074259448092</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="U3" t="n">
-        <v>691.074259448092</v>
+        <v>1053.62400757288</v>
       </c>
       <c r="V3" t="n">
-        <v>455.9221512163493</v>
+        <v>818.4718993411373</v>
       </c>
       <c r="W3" t="n">
-        <v>388.1860656111088</v>
+        <v>818.4718993411373</v>
       </c>
       <c r="X3" t="n">
-        <v>180.334565405576</v>
+        <v>818.4718993411373</v>
       </c>
       <c r="Y3" t="n">
-        <v>180.334565405576</v>
+        <v>818.4718993411373</v>
       </c>
     </row>
     <row r="4">
@@ -4462,25 +4462,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>629.0866528456006</v>
+        <v>334.3512869290737</v>
       </c>
       <c r="C4" t="n">
-        <v>629.0866528456006</v>
+        <v>334.3512869290737</v>
       </c>
       <c r="D4" t="n">
-        <v>629.0866528456006</v>
+        <v>184.234647516738</v>
       </c>
       <c r="E4" t="n">
-        <v>629.0866528456006</v>
+        <v>36.32155393434485</v>
       </c>
       <c r="F4" t="n">
-        <v>482.1967053476902</v>
+        <v>36.32155393434485</v>
       </c>
       <c r="G4" t="n">
-        <v>313.6273447026937</v>
+        <v>36.32155393434485</v>
       </c>
       <c r="H4" t="n">
-        <v>159.7059716361717</v>
+        <v>36.32155393434485</v>
       </c>
       <c r="I4" t="n">
         <v>36.32155393434485</v>
@@ -4495,7 +4495,7 @@
         <v>316.7083726551008</v>
       </c>
       <c r="M4" t="n">
-        <v>527.7368878375336</v>
+        <v>527.7368878375337</v>
       </c>
       <c r="N4" t="n">
         <v>739.1822330227046</v>
@@ -4510,28 +4510,28 @@
         <v>1054.855520006025</v>
       </c>
       <c r="R4" t="n">
-        <v>926.0629918407075</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="S4" t="n">
-        <v>719.2759572512189</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="T4" t="n">
-        <v>629.0866528456006</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="U4" t="n">
-        <v>629.0866528456006</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="V4" t="n">
-        <v>629.0866528456006</v>
+        <v>828.718494394269</v>
       </c>
       <c r="W4" t="n">
-        <v>629.0866528456006</v>
+        <v>562.340837827091</v>
       </c>
       <c r="X4" t="n">
-        <v>629.0866528456006</v>
+        <v>334.3512869290737</v>
       </c>
       <c r="Y4" t="n">
-        <v>629.0866528456006</v>
+        <v>334.3512869290737</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>596.4262686009536</v>
+        <v>602.8941568393163</v>
       </c>
       <c r="C5" t="n">
-        <v>596.4262686009536</v>
+        <v>602.8941568393163</v>
       </c>
       <c r="D5" t="n">
-        <v>596.4262686009536</v>
+        <v>602.8941568393163</v>
       </c>
       <c r="E5" t="n">
-        <v>430.5742004423122</v>
+        <v>430.5742004423096</v>
       </c>
       <c r="F5" t="n">
-        <v>43.22335753479805</v>
+        <v>43.22335753479788</v>
       </c>
       <c r="G5" t="n">
-        <v>30.67818675827512</v>
+        <v>30.67818675827493</v>
       </c>
       <c r="H5" t="n">
-        <v>30.67818675827512</v>
+        <v>30.67818675827493</v>
       </c>
       <c r="I5" t="n">
-        <v>30.67818675827512</v>
+        <v>30.67818675827493</v>
       </c>
       <c r="J5" t="n">
-        <v>93.68840227144278</v>
+        <v>93.68840227144165</v>
       </c>
       <c r="K5" t="n">
-        <v>238.8628998583006</v>
+        <v>238.8628998582985</v>
       </c>
       <c r="L5" t="n">
-        <v>455.8664631799392</v>
+        <v>455.8664631799359</v>
       </c>
       <c r="M5" t="n">
-        <v>728.9941769296706</v>
+        <v>728.994176929666</v>
       </c>
       <c r="N5" t="n">
-        <v>1011.155191012939</v>
+        <v>1011.155191012933</v>
       </c>
       <c r="O5" t="n">
-        <v>1264.25657421996</v>
+        <v>1264.256574219952</v>
       </c>
       <c r="P5" t="n">
-        <v>1445.771748220742</v>
+        <v>1445.771748220733</v>
       </c>
       <c r="Q5" t="n">
-        <v>1533.909337913756</v>
+        <v>1533.909337913747</v>
       </c>
       <c r="R5" t="n">
-        <v>1533.909337913756</v>
+        <v>1533.909337913747</v>
       </c>
       <c r="S5" t="n">
-        <v>1533.909337913756</v>
+        <v>1533.909337913747</v>
       </c>
       <c r="T5" t="n">
-        <v>1533.909337913756</v>
+        <v>1321.307887090399</v>
       </c>
       <c r="U5" t="n">
-        <v>1280.257811214638</v>
+        <v>1321.307887090399</v>
       </c>
       <c r="V5" t="n">
-        <v>949.1949238710678</v>
+        <v>990.2449997468281</v>
       </c>
       <c r="W5" t="n">
-        <v>596.4262686009536</v>
+        <v>990.2449997468281</v>
       </c>
       <c r="X5" t="n">
-        <v>596.4262686009536</v>
+        <v>990.2449997468281</v>
       </c>
       <c r="Y5" t="n">
-        <v>596.4262686009536</v>
+        <v>602.8941568393163</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>67.33159822901588</v>
+        <v>60.40501323577621</v>
       </c>
       <c r="C6" t="n">
-        <v>67.33159822901588</v>
+        <v>60.40501323577621</v>
       </c>
       <c r="D6" t="n">
-        <v>67.33159822901588</v>
+        <v>60.40501323577621</v>
       </c>
       <c r="E6" t="n">
-        <v>67.33159822901588</v>
+        <v>60.40501323577621</v>
       </c>
       <c r="F6" t="n">
-        <v>67.33159822901588</v>
+        <v>60.40501323577621</v>
       </c>
       <c r="G6" t="n">
-        <v>67.33159822901588</v>
+        <v>60.40501323577621</v>
       </c>
       <c r="H6" t="n">
-        <v>67.33159822901588</v>
+        <v>60.40501323577621</v>
       </c>
       <c r="I6" t="n">
-        <v>30.67818675827512</v>
+        <v>30.67818675827493</v>
       </c>
       <c r="J6" t="n">
-        <v>70.50414779342664</v>
+        <v>49.38879249773409</v>
       </c>
       <c r="K6" t="n">
-        <v>180.6383779085226</v>
+        <v>388.6148927670096</v>
       </c>
       <c r="L6" t="n">
-        <v>375.0499828615917</v>
+        <v>583.0264977200776</v>
       </c>
       <c r="M6" t="n">
-        <v>621.2760242110891</v>
+        <v>829.2525390695739</v>
       </c>
       <c r="N6" t="n">
-        <v>888.4275811224024</v>
+        <v>1096.404095980886</v>
       </c>
       <c r="O6" t="n">
-        <v>1110.599268204491</v>
+        <v>1318.575783062973</v>
       </c>
       <c r="P6" t="n">
-        <v>1269.578567846514</v>
+        <v>1477.555082704996</v>
       </c>
       <c r="Q6" t="n">
-        <v>1533.909337913756</v>
+        <v>1533.909337913747</v>
       </c>
       <c r="R6" t="n">
-        <v>1529.480682016487</v>
+        <v>1533.909337913747</v>
       </c>
       <c r="S6" t="n">
-        <v>1396.360200248273</v>
+        <v>1389.433615255034</v>
       </c>
       <c r="T6" t="n">
-        <v>1200.453971726869</v>
+        <v>1193.52738673363</v>
       </c>
       <c r="U6" t="n">
-        <v>972.3328621594469</v>
+        <v>965.4062771662074</v>
       </c>
       <c r="V6" t="n">
-        <v>737.1807539277042</v>
+        <v>730.2541689344646</v>
       </c>
       <c r="W6" t="n">
-        <v>482.9433971995026</v>
+        <v>476.016812206263</v>
       </c>
       <c r="X6" t="n">
-        <v>275.0918969939698</v>
+        <v>268.1653120007301</v>
       </c>
       <c r="Y6" t="n">
-        <v>67.33159822901588</v>
+        <v>60.40501323577621</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>461.7948171741461</v>
+        <v>241.0022380306126</v>
       </c>
       <c r="C7" t="n">
-        <v>461.7948171741461</v>
+        <v>241.0022380306126</v>
       </c>
       <c r="D7" t="n">
-        <v>327.4290323727686</v>
+        <v>241.0022380306126</v>
       </c>
       <c r="E7" t="n">
-        <v>179.5159387903754</v>
+        <v>241.0022380306126</v>
       </c>
       <c r="F7" t="n">
-        <v>32.62599129246508</v>
+        <v>201.0075635499082</v>
       </c>
       <c r="G7" t="n">
-        <v>32.62599129246508</v>
+        <v>32.62599129246515</v>
       </c>
       <c r="H7" t="n">
-        <v>32.62599129246508</v>
+        <v>32.62599129246515</v>
       </c>
       <c r="I7" t="n">
-        <v>32.62599129246508</v>
+        <v>32.62599129246515</v>
       </c>
       <c r="J7" t="n">
-        <v>30.67818675827512</v>
+        <v>30.67818675827493</v>
       </c>
       <c r="K7" t="n">
-        <v>157.3778790199919</v>
+        <v>157.3778790199913</v>
       </c>
       <c r="L7" t="n">
-        <v>375.0362985406471</v>
+        <v>375.0362985406459</v>
       </c>
       <c r="M7" t="n">
-        <v>614.9157070573563</v>
+        <v>614.9157070573546</v>
       </c>
       <c r="N7" t="n">
-        <v>854.525935818232</v>
+        <v>854.5259358182298</v>
       </c>
       <c r="O7" t="n">
-        <v>1059.82846860375</v>
+        <v>1059.828468603748</v>
       </c>
       <c r="P7" t="n">
-        <v>1211.979570281387</v>
+        <v>1211.979570281384</v>
       </c>
       <c r="Q7" t="n">
-        <v>1233.886026315011</v>
+        <v>1233.886026315007</v>
       </c>
       <c r="R7" t="n">
-        <v>1233.886026315011</v>
+        <v>1233.886026315007</v>
       </c>
       <c r="S7" t="n">
-        <v>1233.886026315011</v>
+        <v>1233.886026315007</v>
       </c>
       <c r="T7" t="n">
-        <v>1233.886026315011</v>
+        <v>1233.886026315007</v>
       </c>
       <c r="U7" t="n">
-        <v>1233.886026315011</v>
+        <v>1233.886026315007</v>
       </c>
       <c r="V7" t="n">
-        <v>979.201538109124</v>
+        <v>979.2015381091206</v>
       </c>
       <c r="W7" t="n">
-        <v>689.7843680721635</v>
+        <v>689.7843680721601</v>
       </c>
       <c r="X7" t="n">
-        <v>461.7948171741461</v>
+        <v>461.7948171741427</v>
       </c>
       <c r="Y7" t="n">
-        <v>461.7948171741461</v>
+        <v>241.0022380306126</v>
       </c>
     </row>
     <row r="8">
@@ -4778,37 +4778,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1412.134398099142</v>
+        <v>2047.500788950813</v>
       </c>
       <c r="C8" t="n">
-        <v>1043.17188115873</v>
+        <v>1678.538272010402</v>
       </c>
       <c r="D8" t="n">
-        <v>684.90618255198</v>
+        <v>1320.272573403651</v>
       </c>
       <c r="E8" t="n">
-        <v>299.1179299537358</v>
+        <v>934.4843208054069</v>
       </c>
       <c r="F8" t="n">
-        <v>62.91113280331017</v>
+        <v>523.4984160157994</v>
       </c>
       <c r="G8" t="n">
-        <v>51.24678656800311</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H8" t="n">
-        <v>51.24678656800311</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I8" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816086</v>
       </c>
       <c r="L8" t="n">
-        <v>795.7553530872915</v>
+        <v>795.7553530872917</v>
       </c>
       <c r="M8" t="n">
         <v>1220.470313923562</v>
@@ -4829,25 +4829,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S8" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="T8" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="U8" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="V8" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="W8" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="X8" t="n">
-        <v>2188.873570139076</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="Y8" t="n">
-        <v>1798.734238163264</v>
+        <v>2047.500788950813</v>
       </c>
     </row>
     <row r="9">
@@ -4857,49 +4857,49 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041410966384</v>
+        <v>931.3041410966389</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8511118155114</v>
+        <v>756.8511118155119</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9167021542601</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E9" t="n">
-        <v>448.6792471488045</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1446891756896</v>
+        <v>302.14468917569</v>
       </c>
       <c r="G9" t="n">
-        <v>165.443278618252</v>
+        <v>165.4432786182524</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057899</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I9" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J9" t="n">
-        <v>238.4273302370161</v>
+        <v>113.5972052500113</v>
       </c>
       <c r="K9" t="n">
-        <v>614.5430248380228</v>
+        <v>507.2413987429755</v>
       </c>
       <c r="L9" t="n">
-        <v>909.2465818694945</v>
+        <v>801.9449557744472</v>
       </c>
       <c r="M9" t="n">
-        <v>1272.508600828715</v>
+        <v>1165.206974733667</v>
       </c>
       <c r="N9" t="n">
-        <v>1659.79372942566</v>
+        <v>1552.492103330613</v>
       </c>
       <c r="O9" t="n">
-        <v>1991.864164601822</v>
+        <v>1884.562538506774</v>
       </c>
       <c r="P9" t="n">
-        <v>2239.046898434119</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q9" t="n">
         <v>2562.339328400155</v>
@@ -4914,16 +4914,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V9" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W9" t="n">
-        <v>1515.131277087193</v>
+        <v>1515.131277087194</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y9" t="n">
         <v>1099.519478116707</v>
@@ -4936,49 +4936,49 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>370.2996089082458</v>
+        <v>518.2127024906389</v>
       </c>
       <c r="C10" t="n">
-        <v>201.3634259803388</v>
+        <v>349.2765195627319</v>
       </c>
       <c r="D10" t="n">
-        <v>51.24678656800311</v>
+        <v>199.1598801503962</v>
       </c>
       <c r="E10" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="F10" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="G10" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H10" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I10" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J10" t="n">
-        <v>76.715959553122</v>
+        <v>76.71595955312196</v>
       </c>
       <c r="K10" t="n">
-        <v>248.4064713020476</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096588</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N10" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O10" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P10" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q10" t="n">
         <v>1636.446120074497</v>
@@ -4993,19 +4993,19 @@
         <v>1636.446120074497</v>
       </c>
       <c r="U10" t="n">
-        <v>1544.831862022881</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="V10" t="n">
-        <v>1290.147373816994</v>
+        <v>1381.76163186861</v>
       </c>
       <c r="W10" t="n">
-        <v>1000.730203780033</v>
+        <v>1092.344461831649</v>
       </c>
       <c r="X10" t="n">
-        <v>772.7406528820156</v>
+        <v>864.354910933632</v>
       </c>
       <c r="Y10" t="n">
-        <v>551.9480737384855</v>
+        <v>643.5623317901019</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1731.923485236369</v>
+        <v>2310.622869249671</v>
       </c>
       <c r="C11" t="n">
-        <v>1362.960968295957</v>
+        <v>1941.660352309259</v>
       </c>
       <c r="D11" t="n">
-        <v>1004.695269689207</v>
+        <v>1583.394653702508</v>
       </c>
       <c r="E11" t="n">
-        <v>618.9070170909631</v>
+        <v>1197.606401104264</v>
       </c>
       <c r="F11" t="n">
-        <v>494.9526747355837</v>
+        <v>786.6204963146565</v>
       </c>
       <c r="G11" t="n">
-        <v>80.45786684223378</v>
+        <v>372.125688421307</v>
       </c>
       <c r="H11" t="n">
-        <v>80.45786684223378</v>
+        <v>80.45786684223414</v>
       </c>
       <c r="I11" t="n">
-        <v>80.45786684223378</v>
+        <v>80.45786684223414</v>
       </c>
       <c r="J11" t="n">
-        <v>317.3880320746704</v>
+        <v>317.3880320746725</v>
       </c>
       <c r="K11" t="n">
-        <v>723.2234501947017</v>
+        <v>723.2234501947064</v>
       </c>
       <c r="L11" t="n">
-        <v>1263.599934653011</v>
+        <v>1263.599934653018</v>
       </c>
       <c r="M11" t="n">
-        <v>1896.542330458661</v>
+        <v>1896.542330458671</v>
       </c>
       <c r="N11" t="n">
-        <v>2544.340204328182</v>
+        <v>2544.340204328194</v>
       </c>
       <c r="O11" t="n">
-        <v>3142.702105990702</v>
+        <v>3142.702105990716</v>
       </c>
       <c r="P11" t="n">
-        <v>3618.889144608848</v>
+        <v>3618.889144608864</v>
       </c>
       <c r="Q11" t="n">
-        <v>3928.31303271859</v>
+        <v>3928.313032718607</v>
       </c>
       <c r="R11" t="n">
-        <v>4022.893342111689</v>
+        <v>4022.893342111707</v>
       </c>
       <c r="S11" t="n">
-        <v>4022.893342111689</v>
+        <v>4022.893342111707</v>
       </c>
       <c r="T11" t="n">
-        <v>3819.444223496299</v>
+        <v>4022.893342111707</v>
       </c>
       <c r="U11" t="n">
-        <v>3565.959958151067</v>
+        <v>3769.409076766476</v>
       </c>
       <c r="V11" t="n">
-        <v>3234.897070807497</v>
+        <v>3460.827799550684</v>
       </c>
       <c r="W11" t="n">
-        <v>2882.128415537382</v>
+        <v>3460.827799550684</v>
       </c>
       <c r="X11" t="n">
-        <v>2508.662657276303</v>
+        <v>3087.362041289604</v>
       </c>
       <c r="Y11" t="n">
-        <v>2118.523325300491</v>
+        <v>2697.222709313793</v>
       </c>
     </row>
     <row r="12">
@@ -5112,31 +5112,31 @@
         <v>176.3410440432266</v>
       </c>
       <c r="H12" t="n">
-        <v>88.82407519727428</v>
+        <v>88.82407519727438</v>
       </c>
       <c r="I12" t="n">
-        <v>80.45786684223378</v>
+        <v>80.45786684223414</v>
       </c>
       <c r="J12" t="n">
-        <v>80.45786684223378</v>
+        <v>202.7540031635563</v>
       </c>
       <c r="K12" t="n">
-        <v>80.45786684223378</v>
+        <v>489.9324039036203</v>
       </c>
       <c r="L12" t="n">
-        <v>433.8943484671848</v>
+        <v>922.4017448696463</v>
       </c>
       <c r="M12" t="n">
-        <v>957.9225392857951</v>
+        <v>1446.429935688258</v>
       </c>
       <c r="N12" t="n">
-        <v>1510.228841936574</v>
+        <v>1998.736238339039</v>
       </c>
       <c r="O12" t="n">
-        <v>1993.261411868774</v>
+        <v>2481.768808271241</v>
       </c>
       <c r="P12" t="n">
-        <v>2361.604567899689</v>
+        <v>2557.913016602452</v>
       </c>
       <c r="Q12" t="n">
         <v>2557.913016602452</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>508.720699256279</v>
+        <v>243.3704932812948</v>
       </c>
       <c r="C13" t="n">
-        <v>508.720699256279</v>
+        <v>243.3704932812948</v>
       </c>
       <c r="D13" t="n">
-        <v>358.6040598439431</v>
+        <v>227.3478143401445</v>
       </c>
       <c r="E13" t="n">
-        <v>210.6909662615501</v>
+        <v>227.3478143401445</v>
       </c>
       <c r="F13" t="n">
-        <v>210.69096626155</v>
+        <v>80.45786684223414</v>
       </c>
       <c r="G13" t="n">
-        <v>80.45786684223378</v>
+        <v>80.45786684223414</v>
       </c>
       <c r="H13" t="n">
-        <v>80.45786684223378</v>
+        <v>80.45786684223414</v>
       </c>
       <c r="I13" t="n">
-        <v>80.45786684223378</v>
+        <v>80.45786684223414</v>
       </c>
       <c r="J13" t="n">
-        <v>143.53505662839</v>
+        <v>143.5350566283905</v>
       </c>
       <c r="K13" t="n">
-        <v>377.0270927076808</v>
+        <v>377.0270927076825</v>
       </c>
       <c r="L13" t="n">
-        <v>731.3429449977109</v>
+        <v>731.3429449977135</v>
       </c>
       <c r="M13" t="n">
-        <v>1115.308455583781</v>
+        <v>1115.308455583785</v>
       </c>
       <c r="N13" t="n">
-        <v>1495.578740955082</v>
+        <v>1495.578740955086</v>
       </c>
       <c r="O13" t="n">
-        <v>1830.803602510213</v>
+        <v>1830.803602510219</v>
       </c>
       <c r="P13" t="n">
-        <v>2094.125701226114</v>
+        <v>2094.125701226119</v>
       </c>
       <c r="Q13" t="n">
-        <v>2193.001193167693</v>
+        <v>2193.0011931677</v>
       </c>
       <c r="R13" t="n">
-        <v>2193.001193167693</v>
+        <v>2114.821283191654</v>
       </c>
       <c r="S13" t="n">
-        <v>2193.001193167693</v>
+        <v>1927.65098719271</v>
       </c>
       <c r="T13" t="n">
-        <v>1972.34168594895</v>
+        <v>1706.991479973966</v>
       </c>
       <c r="U13" t="n">
-        <v>1683.252952370914</v>
+        <v>1417.90274639593</v>
       </c>
       <c r="V13" t="n">
-        <v>1428.568464165027</v>
+        <v>1163.218258190043</v>
       </c>
       <c r="W13" t="n">
-        <v>1139.151294128066</v>
+        <v>873.801088153082</v>
       </c>
       <c r="X13" t="n">
-        <v>911.1617432300488</v>
+        <v>645.8115372550646</v>
       </c>
       <c r="Y13" t="n">
-        <v>690.3691640865187</v>
+        <v>425.0189581115345</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.224468905843</v>
+        <v>2266.424947555044</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.261951965432</v>
+        <v>1897.462430614633</v>
       </c>
       <c r="D14" t="n">
-        <v>1589.996253358682</v>
+        <v>1539.196732007882</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.208000760438</v>
+        <v>1153.408479409638</v>
       </c>
       <c r="F14" t="n">
-        <v>793.22209597083</v>
+        <v>742.4225746200307</v>
       </c>
       <c r="G14" t="n">
-        <v>379.2389888872364</v>
+        <v>328.439467536437</v>
       </c>
       <c r="H14" t="n">
-        <v>92.81162322608056</v>
+        <v>92.81162322608057</v>
       </c>
       <c r="I14" t="n">
-        <v>92.81162322608056</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="J14" t="n">
-        <v>372.3074987251948</v>
+        <v>372.3074987251939</v>
       </c>
       <c r="K14" t="n">
-        <v>841.9378825128776</v>
+        <v>841.937882512877</v>
       </c>
       <c r="L14" t="n">
-        <v>1461.457663018653</v>
+        <v>1461.457663018652</v>
       </c>
       <c r="M14" t="n">
-        <v>2182.462224957691</v>
+        <v>2182.462224957689</v>
       </c>
       <c r="N14" t="n">
-        <v>2919.747202874796</v>
+        <v>2919.747202874795</v>
       </c>
       <c r="O14" t="n">
-        <v>3602.609239333935</v>
+        <v>3602.609239333933</v>
       </c>
       <c r="P14" t="n">
-        <v>4150.915188021283</v>
+        <v>4150.915188021281</v>
       </c>
       <c r="Q14" t="n">
-        <v>4514.49737412729</v>
+        <v>4514.497374127288</v>
       </c>
       <c r="R14" t="n">
-        <v>4640.581161304028</v>
+        <v>4640.581161304026</v>
       </c>
       <c r="S14" t="n">
-        <v>4555.113898070877</v>
+        <v>4555.113898070875</v>
       </c>
       <c r="T14" t="n">
-        <v>4404.704271100993</v>
+        <v>4353.904749750193</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.260941820542</v>
+        <v>4100.461420469743</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.198054476971</v>
+        <v>3769.398533126172</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.429399206857</v>
+        <v>3416.629877856058</v>
       </c>
       <c r="X14" t="n">
-        <v>3093.963640945777</v>
+        <v>3043.164119594978</v>
       </c>
       <c r="Y14" t="n">
-        <v>2703.824308969965</v>
+        <v>2653.024787619166</v>
       </c>
     </row>
     <row r="15">
@@ -5343,31 +5343,31 @@
         <v>459.9992225560484</v>
       </c>
       <c r="F15" t="n">
-        <v>313.4646645829334</v>
+        <v>313.4646645829333</v>
       </c>
       <c r="G15" t="n">
         <v>177.6844143428629</v>
       </c>
       <c r="H15" t="n">
-        <v>92.81162322608056</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="I15" t="n">
-        <v>93.85065580060315</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="J15" t="n">
-        <v>93.85065580060315</v>
+        <v>240.4596049779265</v>
       </c>
       <c r="K15" t="n">
-        <v>424.3593983639619</v>
+        <v>570.9683475412852</v>
       </c>
       <c r="L15" t="n">
-        <v>915.0917312077133</v>
+        <v>1061.700680385036</v>
       </c>
       <c r="M15" t="n">
-        <v>1507.110085459841</v>
+        <v>1653.719034637164</v>
       </c>
       <c r="N15" t="n">
-        <v>2005.899154770046</v>
+        <v>2275.8149980365</v>
       </c>
       <c r="O15" t="n">
         <v>2552.77562977024</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1015.754398433617</v>
+        <v>494.0589900220728</v>
       </c>
       <c r="C16" t="n">
-        <v>846.8182155057104</v>
+        <v>325.1228070941659</v>
       </c>
       <c r="D16" t="n">
-        <v>696.7015760933746</v>
+        <v>325.1228070941659</v>
       </c>
       <c r="E16" t="n">
-        <v>548.7884825109816</v>
+        <v>325.1228070941659</v>
       </c>
       <c r="F16" t="n">
-        <v>401.8985350130712</v>
+        <v>325.1228070941659</v>
       </c>
       <c r="G16" t="n">
-        <v>234.6843401876502</v>
+        <v>157.9086122687451</v>
       </c>
       <c r="H16" t="n">
-        <v>92.81162322608056</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="I16" t="n">
-        <v>92.81162322608056</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="J16" t="n">
-        <v>171.7937461156344</v>
+        <v>171.7937461156343</v>
       </c>
       <c r="K16" t="n">
-        <v>431.4224730861981</v>
+        <v>431.422473086198</v>
       </c>
       <c r="L16" t="n">
-        <v>819.1842911693324</v>
+        <v>819.1842911693321</v>
       </c>
       <c r="M16" t="n">
-        <v>1238.413883213792</v>
+        <v>1238.413883213791</v>
       </c>
       <c r="N16" t="n">
-        <v>1653.109749005499</v>
+        <v>1653.109749005498</v>
       </c>
       <c r="O16" t="n">
         <v>2020.132206020528</v>
       </c>
       <c r="P16" t="n">
-        <v>2310.662640856733</v>
+        <v>2310.662640856732</v>
       </c>
       <c r="Q16" t="n">
-        <v>2428.375774410168</v>
+        <v>2428.375774410167</v>
       </c>
       <c r="R16" t="n">
-        <v>2428.375774410168</v>
+        <v>2360.516429368668</v>
       </c>
       <c r="S16" t="n">
-        <v>2428.375774410168</v>
+        <v>2177.346239107599</v>
       </c>
       <c r="T16" t="n">
-        <v>2428.375774410168</v>
+        <v>1957.667456821981</v>
       </c>
       <c r="U16" t="n">
-        <v>2190.286651548252</v>
+        <v>1668.591243136708</v>
       </c>
       <c r="V16" t="n">
-        <v>1935.602163342365</v>
+        <v>1413.906754930821</v>
       </c>
       <c r="W16" t="n">
-        <v>1646.184993305405</v>
+        <v>1124.48958489386</v>
       </c>
       <c r="X16" t="n">
-        <v>1418.195442407387</v>
+        <v>896.5000339958426</v>
       </c>
       <c r="Y16" t="n">
-        <v>1197.402863263857</v>
+        <v>675.7074548523125</v>
       </c>
     </row>
     <row r="17">
@@ -5507,19 +5507,19 @@
         <v>379.2389888872364</v>
       </c>
       <c r="H17" t="n">
-        <v>92.81162322608056</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="I17" t="n">
-        <v>92.81162322608066</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="J17" t="n">
-        <v>372.3074987251938</v>
+        <v>372.3074987251939</v>
       </c>
       <c r="K17" t="n">
-        <v>841.9378825128758</v>
+        <v>841.9378825128765</v>
       </c>
       <c r="L17" t="n">
-        <v>1461.457663018651</v>
+        <v>1461.457663018652</v>
       </c>
       <c r="M17" t="n">
         <v>2182.462224957689</v>
@@ -5528,16 +5528,16 @@
         <v>2919.747202874795</v>
       </c>
       <c r="O17" t="n">
-        <v>3602.609239333934</v>
+        <v>3602.609239333933</v>
       </c>
       <c r="P17" t="n">
-        <v>4150.915188021282</v>
+        <v>4150.915188021281</v>
       </c>
       <c r="Q17" t="n">
-        <v>4514.49737412729</v>
+        <v>4514.497374127288</v>
       </c>
       <c r="R17" t="n">
-        <v>4640.581161304028</v>
+        <v>4640.581161304026</v>
       </c>
       <c r="S17" t="n">
         <v>4605.913419421674</v>
@@ -5580,34 +5580,34 @@
         <v>459.9992225560484</v>
       </c>
       <c r="F18" t="n">
-        <v>313.4646645829334</v>
+        <v>313.4646645829333</v>
       </c>
       <c r="G18" t="n">
         <v>177.6844143428629</v>
       </c>
       <c r="H18" t="n">
-        <v>92.81162322608056</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="I18" t="n">
-        <v>92.81162322608056</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="J18" t="n">
-        <v>92.81162322608056</v>
+        <v>240.4596049779265</v>
       </c>
       <c r="K18" t="n">
-        <v>92.81162322608056</v>
+        <v>570.9683475412852</v>
       </c>
       <c r="L18" t="n">
-        <v>583.543956069832</v>
+        <v>1061.700680385036</v>
       </c>
       <c r="M18" t="n">
-        <v>1175.56231032196</v>
+        <v>1653.719034637164</v>
       </c>
       <c r="N18" t="n">
-        <v>1797.658273721296</v>
+        <v>2275.8149980365</v>
       </c>
       <c r="O18" t="n">
-        <v>2133.192111344164</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="P18" t="n">
         <v>2552.77562977024</v>
@@ -5647,28 +5647,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>576.8750945618018</v>
+        <v>745.0885253246415</v>
       </c>
       <c r="C19" t="n">
-        <v>407.9389116338949</v>
+        <v>704.9454985441409</v>
       </c>
       <c r="D19" t="n">
-        <v>407.9389116338949</v>
+        <v>554.8288591318052</v>
       </c>
       <c r="E19" t="n">
-        <v>260.0258180515018</v>
+        <v>406.9157655494121</v>
       </c>
       <c r="F19" t="n">
-        <v>260.0258180515018</v>
+        <v>260.0258180515017</v>
       </c>
       <c r="G19" t="n">
-        <v>92.81162322608056</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="H19" t="n">
-        <v>92.81162322608056</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="I19" t="n">
-        <v>92.81162322608056</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="J19" t="n">
         <v>171.7937461156343</v>
@@ -5677,46 +5677,46 @@
         <v>431.4224730861981</v>
       </c>
       <c r="L19" t="n">
-        <v>819.1842911693323</v>
+        <v>819.184291169332</v>
       </c>
       <c r="M19" t="n">
-        <v>1238.413883213792</v>
+        <v>1238.413883213791</v>
       </c>
       <c r="N19" t="n">
-        <v>1653.109749005499</v>
+        <v>1653.109749005498</v>
       </c>
       <c r="O19" t="n">
-        <v>2020.132206020529</v>
+        <v>2020.132206020528</v>
       </c>
       <c r="P19" t="n">
-        <v>2310.662640856734</v>
+        <v>2310.662640856733</v>
       </c>
       <c r="Q19" t="n">
-        <v>2428.375774410169</v>
+        <v>2428.375774410168</v>
       </c>
       <c r="R19" t="n">
-        <v>2428.375774410169</v>
+        <v>2428.375774410168</v>
       </c>
       <c r="S19" t="n">
-        <v>2245.205584149099</v>
+        <v>2428.375774410168</v>
       </c>
       <c r="T19" t="n">
-        <v>2025.526801863481</v>
+        <v>2208.69699212455</v>
       </c>
       <c r="U19" t="n">
-        <v>1736.450588178207</v>
+        <v>1919.620778439276</v>
       </c>
       <c r="V19" t="n">
-        <v>1481.76609997232</v>
+        <v>1664.936290233389</v>
       </c>
       <c r="W19" t="n">
-        <v>1192.34892993536</v>
+        <v>1375.519120196429</v>
       </c>
       <c r="X19" t="n">
-        <v>964.3593790373425</v>
+        <v>1147.529569298411</v>
       </c>
       <c r="Y19" t="n">
-        <v>743.5667998938123</v>
+        <v>926.7369901548813</v>
       </c>
     </row>
     <row r="20">
@@ -5726,7 +5726,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.224468905844</v>
+        <v>2317.224468905843</v>
       </c>
       <c r="C20" t="n">
         <v>1948.261951965432</v>
@@ -5735,67 +5735,67 @@
         <v>1589.996253358682</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.208000760437</v>
+        <v>1204.208000760438</v>
       </c>
       <c r="F20" t="n">
         <v>793.22209597083</v>
       </c>
       <c r="G20" t="n">
-        <v>379.2389888872365</v>
+        <v>379.2389888872364</v>
       </c>
       <c r="H20" t="n">
-        <v>92.81162322608056</v>
+        <v>92.81162322608054</v>
       </c>
       <c r="I20" t="n">
-        <v>92.81162322608056</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="J20" t="n">
-        <v>372.3074987251948</v>
+        <v>372.3074987251935</v>
       </c>
       <c r="K20" t="n">
-        <v>841.9378825128774</v>
+        <v>841.9378825128754</v>
       </c>
       <c r="L20" t="n">
-        <v>1461.457663018653</v>
+        <v>1461.45766301865</v>
       </c>
       <c r="M20" t="n">
-        <v>2182.462224957691</v>
+        <v>2182.462224957688</v>
       </c>
       <c r="N20" t="n">
-        <v>2919.747202874796</v>
+        <v>2919.747202874794</v>
       </c>
       <c r="O20" t="n">
-        <v>3602.609239333935</v>
+        <v>3602.609239333932</v>
       </c>
       <c r="P20" t="n">
-        <v>4150.915188021283</v>
+        <v>4150.915188021281</v>
       </c>
       <c r="Q20" t="n">
-        <v>4514.49737412729</v>
+        <v>4514.497374127288</v>
       </c>
       <c r="R20" t="n">
-        <v>4640.581161304028</v>
+        <v>4640.581161304026</v>
       </c>
       <c r="S20" t="n">
-        <v>4555.113898070877</v>
+        <v>4605.913419421674</v>
       </c>
       <c r="T20" t="n">
-        <v>4353.904749750196</v>
+        <v>4404.704271100993</v>
       </c>
       <c r="U20" t="n">
-        <v>4100.461420469745</v>
+        <v>4151.260941820542</v>
       </c>
       <c r="V20" t="n">
-        <v>3769.398533126174</v>
+        <v>3820.198054476971</v>
       </c>
       <c r="W20" t="n">
-        <v>3416.629877856059</v>
+        <v>3467.429399206857</v>
       </c>
       <c r="X20" t="n">
-        <v>3043.16411959498</v>
+        <v>3093.963640945777</v>
       </c>
       <c r="Y20" t="n">
-        <v>2653.024787619168</v>
+        <v>2703.824308969965</v>
       </c>
     </row>
     <row r="21">
@@ -5817,40 +5817,40 @@
         <v>459.9992225560484</v>
       </c>
       <c r="F21" t="n">
-        <v>313.4646645829334</v>
+        <v>313.4646645829333</v>
       </c>
       <c r="G21" t="n">
         <v>177.6844143428629</v>
       </c>
       <c r="H21" t="n">
-        <v>92.81162322608056</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="I21" t="n">
-        <v>93.85065580060315</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="J21" t="n">
-        <v>106.3138404733484</v>
+        <v>240.4596049779265</v>
       </c>
       <c r="K21" t="n">
-        <v>106.3138404733484</v>
+        <v>570.9683475412853</v>
       </c>
       <c r="L21" t="n">
-        <v>106.3138404733484</v>
+        <v>1061.700680385037</v>
       </c>
       <c r="M21" t="n">
-        <v>698.3321947254761</v>
+        <v>1653.719034637164</v>
       </c>
       <c r="N21" t="n">
-        <v>1320.428158124812</v>
+        <v>2275.814998036501</v>
       </c>
       <c r="O21" t="n">
-        <v>1867.304633125007</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="P21" t="n">
-        <v>2286.888151551083</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="Q21" t="n">
-        <v>2517.44942553633</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="R21" t="n">
         <v>2552.77562977024</v>
@@ -5884,40 +5884,40 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>570.8347179409782</v>
+        <v>696.7015760933743</v>
       </c>
       <c r="C22" t="n">
-        <v>401.8985350130713</v>
+        <v>696.7015760933743</v>
       </c>
       <c r="D22" t="n">
-        <v>401.8985350130713</v>
+        <v>696.7015760933743</v>
       </c>
       <c r="E22" t="n">
-        <v>401.8985350130713</v>
+        <v>548.7884825109813</v>
       </c>
       <c r="F22" t="n">
-        <v>401.8985350130713</v>
+        <v>401.8985350130711</v>
       </c>
       <c r="G22" t="n">
         <v>234.6843401876502</v>
       </c>
       <c r="H22" t="n">
-        <v>92.81162322608056</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="I22" t="n">
-        <v>92.81162322608056</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="J22" t="n">
-        <v>171.7937461156345</v>
+        <v>171.7937461156343</v>
       </c>
       <c r="K22" t="n">
-        <v>431.4224730861982</v>
+        <v>431.4224730861981</v>
       </c>
       <c r="L22" t="n">
-        <v>819.1842911693325</v>
+        <v>819.1842911693321</v>
       </c>
       <c r="M22" t="n">
-        <v>1238.413883213792</v>
+        <v>1238.413883213791</v>
       </c>
       <c r="N22" t="n">
         <v>1653.109749005499</v>
@@ -5935,25 +5935,25 @@
         <v>2428.375774410168</v>
       </c>
       <c r="S22" t="n">
-        <v>2245.205584149098</v>
+        <v>2379.9888251789</v>
       </c>
       <c r="T22" t="n">
-        <v>2025.52680186348</v>
+        <v>2160.310042893282</v>
       </c>
       <c r="U22" t="n">
-        <v>1736.450588178207</v>
+        <v>1871.233829208009</v>
       </c>
       <c r="V22" t="n">
-        <v>1481.76609997232</v>
+        <v>1616.549341002122</v>
       </c>
       <c r="W22" t="n">
-        <v>1192.34892993536</v>
+        <v>1327.132170965162</v>
       </c>
       <c r="X22" t="n">
-        <v>964.3593790373423</v>
+        <v>1099.142620067144</v>
       </c>
       <c r="Y22" t="n">
-        <v>743.5667998938121</v>
+        <v>878.3500409236141</v>
       </c>
     </row>
     <row r="23">
@@ -5966,34 +5966,34 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.8166630479719</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M23" t="n">
         <v>2206.558663014779</v>
@@ -6005,31 +6005,31 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6051,7 +6051,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6060,25 +6060,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>923.0670414349513</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>1520.445529061503</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N24" t="n">
-        <v>2148.04349261611</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O24" t="n">
         <v>2553.061288060775</v>
@@ -6121,34 +6121,34 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>580.8993044876688</v>
+        <v>580.899304487669</v>
       </c>
       <c r="C25" t="n">
-        <v>411.9631215597619</v>
+        <v>411.9631215597622</v>
       </c>
       <c r="D25" t="n">
-        <v>411.9631215597619</v>
+        <v>261.8464821474263</v>
       </c>
       <c r="E25" t="n">
-        <v>411.9631215597619</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="F25" t="n">
-        <v>411.9631215597619</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="G25" t="n">
-        <v>244.7670222746417</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H25" t="n">
-        <v>103.05519111684</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
         <v>826.1405381797745</v>
@@ -6166,10 +6166,10 @@
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S25" t="n">
         <v>2264.108249235165</v>
@@ -6187,10 +6187,10 @@
         <v>1211.329899359456</v>
       </c>
       <c r="X25" t="n">
-        <v>983.3403484614387</v>
+        <v>983.3403484614389</v>
       </c>
       <c r="Y25" t="n">
-        <v>762.5477693179085</v>
+        <v>762.5477693179088</v>
       </c>
     </row>
     <row r="26">
@@ -6224,25 +6224,25 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
         <v>4562.265728852256</v>
@@ -6303,19 +6303,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>923.0670414349513</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>1520.445529061503</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>2148.04349261611</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O27" t="n">
         <v>2553.061288060775</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400719</v>
+        <v>513.853600740071</v>
       </c>
       <c r="C28" t="n">
-        <v>344.917417812165</v>
+        <v>467.7318369701959</v>
       </c>
       <c r="D28" t="n">
-        <v>194.8007783998291</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="E28" t="n">
-        <v>194.8007783998291</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="F28" t="n">
-        <v>194.8007783998292</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G28" t="n">
-        <v>194.8007783998292</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6385,7 +6385,7 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
         <v>826.1405381797745</v>
@@ -6397,37 +6397,37 @@
         <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138418</v>
+        <v>916.2946447138409</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703116</v>
+        <v>695.5020655703107</v>
       </c>
     </row>
     <row r="29">
@@ -6455,37 +6455,37 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075817</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q29" t="n">
         <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
         <v>4606.285157492578</v>
@@ -6525,7 +6525,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6534,28 +6534,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797189</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>589.1422692637307</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>1186.520756890282</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>1814.118720444889</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O30" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
         <v>2553.061288060775</v>
@@ -6595,37 +6595,37 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400712</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121643</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D31" t="n">
-        <v>344.9174178121643</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="E31" t="n">
-        <v>344.9174178121643</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="F31" t="n">
-        <v>261.0127623330919</v>
+        <v>411.963121559762</v>
       </c>
       <c r="G31" t="n">
-        <v>93.81666304797189</v>
+        <v>244.7670222746415</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797189</v>
+        <v>103.0551911168396</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.140538179774</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
@@ -6634,37 +6634,37 @@
         <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138411</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703109</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="32">
@@ -6698,19 +6698,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6719,7 +6719,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
@@ -6777,19 +6777,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>923.0670414349513</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>1520.445529061503</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N33" t="n">
-        <v>2148.04349261611</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O33" t="n">
         <v>2553.061288060775</v>
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1098.667160263526</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C34" t="n">
-        <v>929.7309773356194</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D34" t="n">
-        <v>779.6143379232836</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E34" t="n">
-        <v>631.7012443408905</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6859,10 +6859,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.140538179774</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
@@ -6880,7 +6880,7 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S34" t="n">
         <v>2197.062545487567</v>
@@ -6889,19 +6889,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1977.461080510508</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V34" t="n">
-        <v>1729.097755135313</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W34" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X34" t="n">
-        <v>1501.108204237296</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y34" t="n">
-        <v>1280.315625093766</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="35">
@@ -6926,31 +6926,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E37" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F37" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121644</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578601</v>
+        <v>177.7213185270448</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7096,7 +7096,7 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
         <v>826.1405381797745</v>
@@ -7105,40 +7105,40 @@
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7151,7 +7151,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
         <v>1590.547811004713</v>
@@ -7160,25 +7160,25 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
-        <v>93.8166630479719</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J38" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332389</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
         <v>2206.55866301478</v>
@@ -7187,34 +7187,34 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7236,7 +7236,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7245,34 +7245,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>95.58405025273906</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>95.58405025273906</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>95.58405025273906</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>680.0291294438171</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,19 +7306,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>916.3099000622251</v>
+        <v>878.3568999154071</v>
       </c>
       <c r="C40" t="n">
-        <v>782.841029837709</v>
+        <v>709.4207169875002</v>
       </c>
       <c r="D40" t="n">
-        <v>632.7243904253733</v>
+        <v>559.3040775751645</v>
       </c>
       <c r="E40" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G40" t="n">
         <v>317.6151975578601</v>
@@ -7327,7 +7327,7 @@
         <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
@@ -7336,7 +7336,7 @@
         <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
@@ -7354,28 +7354,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832662</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2379.917379832662</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T40" t="n">
-        <v>2379.917379832662</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U40" t="n">
-        <v>2090.84215317686</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V40" t="n">
-        <v>1836.157664970973</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W40" t="n">
-        <v>1546.740494934012</v>
+        <v>1327.139029956955</v>
       </c>
       <c r="X40" t="n">
-        <v>1318.750944035995</v>
+        <v>1099.149479058937</v>
       </c>
       <c r="Y40" t="n">
-        <v>1097.958364892465</v>
+        <v>878.3568999154071</v>
       </c>
     </row>
     <row r="41">
@@ -7403,37 +7403,37 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075817</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332388</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
         <v>4606.285157492578</v>
@@ -7473,7 +7473,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7482,25 +7482,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N42" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O42" t="n">
         <v>2553.061288060775</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400735</v>
+        <v>513.8536007400708</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121666</v>
+        <v>344.9174178121639</v>
       </c>
       <c r="D43" t="n">
-        <v>344.9174178121666</v>
+        <v>344.9174178121639</v>
       </c>
       <c r="E43" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121639</v>
       </c>
       <c r="F43" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121639</v>
       </c>
       <c r="G43" t="n">
-        <v>93.81666304797189</v>
+        <v>177.7213185270444</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.052681478298</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038367</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797769</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
-        <v>1248.150240910812</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.56011257082</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279805</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
-        <v>2327.764848853364</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580263</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832666</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.06254548757</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510511</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854708</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.701365648821</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611861</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138434</v>
+        <v>916.2946447138406</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703132</v>
+        <v>695.5020655703105</v>
       </c>
     </row>
     <row r="44">
@@ -7640,55 +7640,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
         <v>4562.265728852256</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7710,7 +7710,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F45" t="n">
         <v>314.2396613568978</v>
@@ -7719,28 +7719,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>150.8995423128888</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>484.8243144841094</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>980.1499206998682</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>1577.52840832642</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N45" t="n">
-        <v>1577.52840832642</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O45" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
         <v>2553.061288060775</v>
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>733.4550657171351</v>
+        <v>718.5507239167111</v>
       </c>
       <c r="C46" t="n">
-        <v>564.5188827892282</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="D46" t="n">
-        <v>414.4022433768923</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908938</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G46" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038389</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.140538179779</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
-        <v>1248.150240910814</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570822</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279807</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
-        <v>2327.764848853366</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580265</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832668</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487572</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2197.062545487572</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1907.98731883177</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V46" t="n">
-        <v>1653.302830625883</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W46" t="n">
-        <v>1363.885660588922</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X46" t="n">
-        <v>1135.896109690905</v>
+        <v>1120.991767890481</v>
       </c>
       <c r="Y46" t="n">
-        <v>915.1035305473748</v>
+        <v>900.1991887469509</v>
       </c>
     </row>
   </sheetData>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>99.37288961069115</v>
+        <v>2.051220519418294</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -8073,7 +8073,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>97.32166909127278</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -8237,7 +8237,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>34.48513033188115</v>
+        <v>34.48513033188166</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8292,10 +8292,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>21.32864171282015</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>231.4059294486669</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8313,7 +8313,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8529,10 +8529,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>193.327346787835</v>
+        <v>211.0329012241559</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8547,13 +8547,13 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>20.93778120154988</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -23267,16 +23267,16 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>284.1612468098855</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>288.7511433632823</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>19.53007201345011</v>
+        <v>19.5300720134496</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,19 +23306,19 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>96.15636898111907</v>
+        <v>96.15636898111876</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>201.4146274292354</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>22.25679402650093</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23419,22 +23419,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>132.7530208664735</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>36.8385205056978</v>
+        <v>165.7692889308208</v>
       </c>
       <c r="H13" t="n">
         <v>142.4743248871677</v>
       </c>
       <c r="I13" t="n">
-        <v>88.63818461247381</v>
+        <v>88.63818461247362</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,10 +23461,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>77.39811087628563</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>185.2985930389548</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23510,7 +23510,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>50.29152613729167</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23546,7 +23546,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>50.2915261372895</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -23656,22 +23656,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>76.00797063971605</v>
       </c>
       <c r="I16" t="n">
-        <v>81.80457674440902</v>
+        <v>81.80457674440903</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,16 +23698,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>67.18075159108355</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.338488358459</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4819944627618</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>50.47721991512342</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23780,7 +23780,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>50.29152613728936</v>
+        <v>50.29152613729085</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -23887,19 +23887,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>14.80719190324663</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>127.505224585932</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -23908,7 +23908,7 @@
         <v>140.4539897919539</v>
       </c>
       <c r="I19" t="n">
-        <v>81.804576744409</v>
+        <v>81.80457674440903</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,10 +23935,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>67.18075159108353</v>
+        <v>67.18075159108356</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.338488358459</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23966,7 +23966,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>50.29152613728934</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -24017,7 +24017,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>50.29152613729136</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -24124,19 +24124,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>8.82721904863206</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24175,7 +24175,7 @@
         <v>67.18075159108355</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>133.4354086195039</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24212,7 +24212,7 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>-7.389644451905042e-13</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
@@ -24254,7 +24254,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>9.848122317634988e-13</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -24367,22 +24367,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>61.35027805667465</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>72.11969353038603</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24601,7 +24601,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>121.5862749664515</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -24616,10 +24616,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>40.32043864788511</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24728,7 +24728,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>-8.30056023914949e-13</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -24847,16 +24847,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>62.35543909864946</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>72.11969353038644</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -25078,13 +25078,13 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25093,7 +25093,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25129,16 +25129,16 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>6.257951202385414</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25214,7 +25214,7 @@
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>-1.13686837721616e-13</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -25324,13 +25324,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>138.4949402405062</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>57.22910392194166</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25394,7 +25394,7 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>-8.526512829121202e-13</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -25406,7 +25406,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -25546,16 +25546,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>35.1126395763568</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>72.68610972170681</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -25600,7 +25600,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25792,7 +25792,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>63.36835372228516</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -25801,10 +25801,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>57.2291039219421</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -26026,13 +26026,13 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>134.8730892594306</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -26041,7 +26041,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26074,7 +26074,7 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26086,7 +26086,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>202.6501519448731</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>829737.8607485374</v>
+        <v>829737.860748539</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>892096.9082770193</v>
+        <v>892096.9082770188</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>892096.9082770192</v>
+        <v>892096.9082770189</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>892096.9082770192</v>
+        <v>892096.9082770189</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>897010.4191341918</v>
+        <v>897010.4191341917</v>
       </c>
     </row>
     <row r="10">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>897010.4191341917</v>
+        <v>897010.4191341916</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>897010.4191341919</v>
+        <v>897010.4191341917</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>897010.4191341917</v>
+        <v>897010.4191341916</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>897010.4191341917</v>
+        <v>897010.4191341916</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>533677.1504117841</v>
+      </c>
+      <c r="C2" t="n">
         <v>533677.1504117843</v>
       </c>
-      <c r="C2" t="n">
-        <v>533677.1504117838</v>
-      </c>
       <c r="D2" t="n">
-        <v>533677.1504117841</v>
+        <v>533677.1504117843</v>
       </c>
       <c r="E2" t="n">
-        <v>484893.3234797082</v>
+        <v>484893.3234797094</v>
       </c>
       <c r="F2" t="n">
-        <v>521741.8515647202</v>
+        <v>521741.8515647201</v>
       </c>
       <c r="G2" t="n">
-        <v>521741.8515647201</v>
+        <v>521741.85156472</v>
       </c>
       <c r="H2" t="n">
-        <v>521741.8515647201</v>
+        <v>521741.85156472</v>
       </c>
       <c r="I2" t="n">
-        <v>524645.2897985039</v>
+        <v>524645.289798504</v>
       </c>
       <c r="J2" t="n">
-        <v>524645.2897985039</v>
+        <v>524645.289798504</v>
       </c>
       <c r="K2" t="n">
-        <v>524645.2897985039</v>
+        <v>524645.289798504</v>
       </c>
       <c r="L2" t="n">
-        <v>524645.2897985039</v>
+        <v>524645.289798504</v>
       </c>
       <c r="M2" t="n">
-        <v>524645.2897985039</v>
+        <v>524645.289798504</v>
       </c>
       <c r="N2" t="n">
         <v>524645.2897985039</v>
       </c>
       <c r="O2" t="n">
+        <v>524645.2897985041</v>
+      </c>
+      <c r="P2" t="n">
         <v>524645.289798504</v>
-      </c>
-      <c r="P2" t="n">
-        <v>524645.2897985039</v>
       </c>
     </row>
     <row r="3">
@@ -26366,40 +26366,40 @@
         <v>680087.9805911928</v>
       </c>
       <c r="C3" t="n">
-        <v>132571.3256199689</v>
+        <v>132571.3256199663</v>
       </c>
       <c r="D3" t="n">
-        <v>265633.5342698656</v>
+        <v>265633.5342698679</v>
       </c>
       <c r="E3" t="n">
-        <v>348407.0423979614</v>
+        <v>348407.0423979658</v>
       </c>
       <c r="F3" t="n">
-        <v>143852.030004642</v>
+        <v>143852.0300046377</v>
       </c>
       <c r="G3" t="n">
-        <v>1.767800767993322e-10</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1.741016149026109e-10</v>
       </c>
       <c r="I3" t="n">
-        <v>10818.91345744859</v>
+        <v>10818.91345744842</v>
       </c>
       <c r="J3" t="n">
-        <v>68999.15441911401</v>
+        <v>68999.15441911413</v>
       </c>
       <c r="K3" t="n">
-        <v>30823.28075181931</v>
+        <v>30823.28075181866</v>
       </c>
       <c r="L3" t="n">
-        <v>65071.59368054828</v>
+        <v>65071.5936805489</v>
       </c>
       <c r="M3" t="n">
-        <v>90993.97560824225</v>
+        <v>90993.97560824342</v>
       </c>
       <c r="N3" t="n">
-        <v>37822.10612283055</v>
+        <v>37822.10612282927</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26415,25 +26415,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>249437.9663307045</v>
+        <v>249437.9663307044</v>
       </c>
       <c r="C4" t="n">
-        <v>213591.7691971297</v>
+        <v>213591.7691971303</v>
       </c>
       <c r="D4" t="n">
         <v>137930.4104072219</v>
       </c>
       <c r="E4" t="n">
-        <v>9860.618569143846</v>
+        <v>9860.618569143848</v>
       </c>
       <c r="F4" t="n">
         <v>9940.611700543546</v>
       </c>
       <c r="G4" t="n">
-        <v>9940.611700543548</v>
+        <v>9940.611700543546</v>
       </c>
       <c r="H4" t="n">
-        <v>9940.611700543548</v>
+        <v>9940.611700543546</v>
       </c>
       <c r="I4" t="n">
         <v>9947.144321768897</v>
@@ -26442,10 +26442,10 @@
         <v>9947.144321768897</v>
       </c>
       <c r="K4" t="n">
-        <v>9947.144321768899</v>
+        <v>9947.144321768897</v>
       </c>
       <c r="L4" t="n">
-        <v>9947.144321768897</v>
+        <v>9947.14432176889</v>
       </c>
       <c r="M4" t="n">
         <v>9947.144321768897</v>
@@ -26470,13 +26470,13 @@
         <v>63047.80320426619</v>
       </c>
       <c r="C5" t="n">
-        <v>72576.91021638185</v>
+        <v>72576.91021638166</v>
       </c>
       <c r="D5" t="n">
-        <v>92937.77243984472</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="E5" t="n">
-        <v>88006.19635166973</v>
+        <v>88006.19635167008</v>
       </c>
       <c r="F5" t="n">
         <v>100142.1285138384</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-458896.5997143792</v>
+        <v>-458896.5997143794</v>
       </c>
       <c r="C6" t="n">
-        <v>114937.1453783034</v>
+        <v>114937.145378306</v>
       </c>
       <c r="D6" t="n">
-        <v>37175.43329485187</v>
+        <v>37175.43329484979</v>
       </c>
       <c r="E6" t="n">
-        <v>38619.46616093317</v>
+        <v>38431.83605734477</v>
       </c>
       <c r="F6" t="n">
-        <v>267807.0813456962</v>
+        <v>267761.1763501348</v>
       </c>
       <c r="G6" t="n">
-        <v>411659.111350338</v>
+        <v>411613.2063547724</v>
       </c>
       <c r="H6" t="n">
-        <v>411659.1113503383</v>
+        <v>411613.2063547723</v>
       </c>
       <c r="I6" t="n">
-        <v>402756.7021953792</v>
+        <v>402721.9642699438</v>
       </c>
       <c r="J6" t="n">
-        <v>344576.4612337138</v>
+        <v>344541.7233082781</v>
       </c>
       <c r="K6" t="n">
-        <v>382752.3349010085</v>
+        <v>382717.5969755736</v>
       </c>
       <c r="L6" t="n">
-        <v>348504.0219722796</v>
+        <v>348469.2840468434</v>
       </c>
       <c r="M6" t="n">
-        <v>322581.6400445856</v>
+        <v>322546.9021191488</v>
       </c>
       <c r="N6" t="n">
-        <v>375753.5095299973</v>
+        <v>375718.7716045629</v>
       </c>
       <c r="O6" t="n">
-        <v>413575.615652828</v>
+        <v>413540.8777273924</v>
       </c>
       <c r="P6" t="n">
-        <v>413575.6156528278</v>
+        <v>413540.8777273922</v>
       </c>
     </row>
   </sheetData>
@@ -26738,13 +26738,13 @@
         <v>614.0550137694781</v>
       </c>
       <c r="C3" t="n">
-        <v>717.1508385363647</v>
+        <v>717.1508385363627</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="E3" t="n">
-        <v>1232.028328053764</v>
+        <v>1232.028328053768</v>
       </c>
       <c r="F3" t="n">
         <v>1358.041048716386</v>
@@ -26790,31 +26790,31 @@
         <v>263.7138800015061</v>
       </c>
       <c r="C4" t="n">
-        <v>383.477334478439</v>
+        <v>383.4773344784367</v>
       </c>
       <c r="D4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="E4" t="n">
-        <v>1005.723335527922</v>
+        <v>1005.723335527927</v>
       </c>
       <c r="F4" t="n">
-        <v>1160.145290326007</v>
+        <v>1160.145290326006</v>
       </c>
       <c r="G4" t="n">
-        <v>1160.145290326007</v>
+        <v>1160.145290326006</v>
       </c>
       <c r="H4" t="n">
-        <v>1160.145290326007</v>
+        <v>1160.145290326006</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
         <v>1172.708288099648</v>
@@ -26823,13 +26823,13 @@
         <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="P4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
     </row>
   </sheetData>
@@ -26960,25 +26960,25 @@
         <v>614.0550137694781</v>
       </c>
       <c r="C3" t="n">
-        <v>103.0958247668866</v>
+        <v>103.0958247668846</v>
       </c>
       <c r="D3" t="n">
-        <v>216.9140535811746</v>
+        <v>216.9140535811764</v>
       </c>
       <c r="E3" t="n">
-        <v>297.9634359362249</v>
+        <v>297.9634359362285</v>
       </c>
       <c r="F3" t="n">
-        <v>126.0127206626216</v>
+        <v>126.012720662618</v>
       </c>
       <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
         <v>2.273736754432321e-13</v>
       </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
       <c r="I3" t="n">
-        <v>9.934451625288148</v>
+        <v>9.93445162528792</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27012,16 +27012,16 @@
         <v>263.7138800015061</v>
       </c>
       <c r="C4" t="n">
-        <v>119.7634544769328</v>
+        <v>119.7634544769305</v>
       </c>
       <c r="D4" t="n">
-        <v>257.1074976215999</v>
+        <v>257.1074976216021</v>
       </c>
       <c r="E4" t="n">
-        <v>365.1385034278834</v>
+        <v>365.1385034278881</v>
       </c>
       <c r="F4" t="n">
-        <v>154.4219547980847</v>
+        <v>154.4219547980797</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27033,19 +27033,19 @@
         <v>12.56299777364165</v>
       </c>
       <c r="J4" t="n">
-        <v>263.7138800015059</v>
+        <v>263.7138800015064</v>
       </c>
       <c r="K4" t="n">
-        <v>119.7634544769331</v>
+        <v>119.7634544769305</v>
       </c>
       <c r="L4" t="n">
-        <v>257.1074976215996</v>
+        <v>257.1074976216021</v>
       </c>
       <c r="M4" t="n">
-        <v>365.1385034278834</v>
+        <v>365.1385034278881</v>
       </c>
       <c r="N4" t="n">
-        <v>154.4219547980849</v>
+        <v>154.4219547980797</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27258,16 +27258,16 @@
         <v>263.7138800015061</v>
       </c>
       <c r="K4" t="n">
-        <v>119.7634544769328</v>
+        <v>119.7634544769305</v>
       </c>
       <c r="L4" t="n">
-        <v>257.1074976215999</v>
+        <v>257.1074976216021</v>
       </c>
       <c r="M4" t="n">
-        <v>365.1385034278834</v>
+        <v>365.1385034278881</v>
       </c>
       <c r="N4" t="n">
-        <v>154.4219547980847</v>
+        <v>154.4219547980797</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27385,19 +27385,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>118.2164900707556</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>191.7914676267081</v>
       </c>
       <c r="H2" t="n">
         <v>314.193632629268</v>
       </c>
       <c r="I2" t="n">
-        <v>115.3066195468971</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27430,16 +27430,16 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>212.2897156032232</v>
       </c>
       <c r="U2" t="n">
-        <v>139.9227315613168</v>
+        <v>251.1481678782825</v>
       </c>
       <c r="V2" t="n">
         <v>64.03837846862876</v>
       </c>
       <c r="W2" t="n">
-        <v>85.52708871590687</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -27455,19 +27455,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>136.0227195864234</v>
@@ -27503,25 +27503,25 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>18.1525249552777</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>147.1499354121988</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>194.8409875848768</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8544875035546</v>
+        <v>224.6352901947414</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>184.6362584117315</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -27540,22 +27540,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.8836670385466</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>152.3821593358568</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>122.1505735248086</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,25 +27582,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>127.5046028836639</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>204.7191642435938</v>
       </c>
       <c r="T4" t="n">
-        <v>133.9269345180038</v>
+        <v>223.2143458795659</v>
       </c>
       <c r="U4" t="n">
         <v>286.2586305026775</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>28.26198796819</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>22.80911833508486</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27622,19 +27622,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>217.7368225952068</v>
+        <v>211.3336132392251</v>
       </c>
       <c r="F5" t="n">
-        <v>23.39871126327245</v>
+        <v>23.39871126327478</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>309.9490894518052</v>
+        <v>309.9490894518053</v>
       </c>
       <c r="I5" t="n">
-        <v>99.32832091644326</v>
+        <v>99.32832091644359</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,25 +27664,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>143.3232867394216</v>
+        <v>143.3232867394217</v>
       </c>
       <c r="T5" t="n">
-        <v>210.4754363151145</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.1150114321263</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>2.760604177616926</v>
       </c>
     </row>
     <row r="6">
@@ -27710,10 +27710,10 @@
         <v>135.8009663029626</v>
       </c>
       <c r="H6" t="n">
-        <v>97.33765040199575</v>
+        <v>97.33765040199579</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>6.85731914330723</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27740,10 +27740,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>4.384369338296395</v>
       </c>
       <c r="S6" t="n">
-        <v>11.24168848159371</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
@@ -27777,22 +27777,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>15.59334606484856</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>105.8263202870339</v>
       </c>
       <c r="G7" t="n">
-        <v>166.6977565348686</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>150.7292459486106</v>
+        <v>150.7292459486107</v>
       </c>
       <c r="I7" t="n">
-        <v>116.5597376505649</v>
+        <v>116.559737650565</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,10 +27819,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>119.1453906001062</v>
+        <v>119.1453906001064</v>
       </c>
       <c r="S7" t="n">
-        <v>201.4792511931327</v>
+        <v>201.4792511931328</v>
       </c>
       <c r="T7" t="n">
         <v>222.4200010002144</v>
@@ -27840,7 +27840,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27862,16 +27862,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>173.0313165627901</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>310.7470548545115</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247047</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,7 +27901,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>206.6581849802338</v>
@@ -27916,7 +27916,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28008,7 +28008,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>55.73584717546893</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -28017,7 +28017,7 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28026,7 +28026,7 @@
         <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551288</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I10" t="n">
         <v>104.7965952039006</v>
@@ -28065,7 +28065,7 @@
         <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>195.5290386500999</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -29746,7 +29746,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>-1.70530256582424e-13</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -30639,7 +30639,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>2.267994994951431e-12</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -30694,7 +30694,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>-1.379537061206225e-12</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -30879,7 +30879,7 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>4.575464586333979e-12</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
         <v>0</v>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.883018446377343</v>
+        <v>2.883018446377335</v>
       </c>
       <c r="H5" t="n">
-        <v>29.52571266396198</v>
+        <v>29.52571266396189</v>
       </c>
       <c r="I5" t="n">
-        <v>111.1475686539627</v>
+        <v>111.1475686539623</v>
       </c>
       <c r="J5" t="n">
-        <v>244.6925868632193</v>
+        <v>244.6925868632186</v>
       </c>
       <c r="K5" t="n">
-        <v>366.7307576983723</v>
+        <v>366.7307576983712</v>
       </c>
       <c r="L5" t="n">
-        <v>454.961933476693</v>
+        <v>454.9619334766917</v>
       </c>
       <c r="M5" t="n">
-        <v>506.2328127724561</v>
+        <v>506.2328127724546</v>
       </c>
       <c r="N5" t="n">
-        <v>514.4241889332258</v>
+        <v>514.4241889332243</v>
       </c>
       <c r="O5" t="n">
-        <v>485.756174257061</v>
+        <v>485.7561742570596</v>
       </c>
       <c r="P5" t="n">
-        <v>414.5816563621203</v>
+        <v>414.5816563621191</v>
       </c>
       <c r="Q5" t="n">
-        <v>311.3335582512316</v>
+        <v>311.3335582512307</v>
       </c>
       <c r="R5" t="n">
-        <v>181.100407482251</v>
+        <v>181.1004074822505</v>
       </c>
       <c r="S5" t="n">
-        <v>65.69678284682378</v>
+        <v>65.6967828468236</v>
       </c>
       <c r="T5" t="n">
-        <v>12.62041324901683</v>
+        <v>12.62041324901679</v>
       </c>
       <c r="U5" t="n">
-        <v>0.2306414757101874</v>
+        <v>0.2306414757101868</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.54255086024803</v>
+        <v>1.542550860248026</v>
       </c>
       <c r="H6" t="n">
-        <v>14.89779383450071</v>
+        <v>14.89779383450067</v>
       </c>
       <c r="I6" t="n">
-        <v>53.10975549538173</v>
+        <v>53.10975549538158</v>
       </c>
       <c r="J6" t="n">
-        <v>145.7372284236966</v>
+        <v>145.7372284236961</v>
       </c>
       <c r="K6" t="n">
-        <v>249.0881360603146</v>
+        <v>249.0881360603138</v>
       </c>
       <c r="L6" t="n">
-        <v>334.9297383183277</v>
+        <v>334.9297383183268</v>
       </c>
       <c r="M6" t="n">
-        <v>390.8472070023187</v>
+        <v>390.8472070023176</v>
       </c>
       <c r="N6" t="n">
-        <v>401.1917695695084</v>
+        <v>401.1917695695073</v>
       </c>
       <c r="O6" t="n">
-        <v>367.0120899819074</v>
+        <v>367.0120899819063</v>
       </c>
       <c r="P6" t="n">
-        <v>294.5595585678892</v>
+        <v>294.5595585678883</v>
       </c>
       <c r="Q6" t="n">
-        <v>196.9052641958714</v>
+        <v>196.9052641958708</v>
       </c>
       <c r="R6" t="n">
-        <v>95.77346481434701</v>
+        <v>95.77346481434674</v>
       </c>
       <c r="S6" t="n">
-        <v>28.65220567171229</v>
+        <v>28.65220567171221</v>
       </c>
       <c r="T6" t="n">
-        <v>6.217562458631311</v>
+        <v>6.217562458631293</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1014836092268441</v>
+        <v>0.1014836092268438</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.293222823590166</v>
+        <v>1.293222823590162</v>
       </c>
       <c r="H7" t="n">
-        <v>11.49792655882894</v>
+        <v>11.4979265588289</v>
       </c>
       <c r="I7" t="n">
-        <v>38.89073727669336</v>
+        <v>38.89073727669325</v>
       </c>
       <c r="J7" t="n">
-        <v>91.43085362782472</v>
+        <v>91.43085362782446</v>
       </c>
       <c r="K7" t="n">
-        <v>150.2489789589301</v>
+        <v>150.2489789589297</v>
       </c>
       <c r="L7" t="n">
-        <v>192.2669641544871</v>
+        <v>192.2669641544865</v>
       </c>
       <c r="M7" t="n">
-        <v>202.7185558833202</v>
+        <v>202.7185558833197</v>
       </c>
       <c r="N7" t="n">
-        <v>197.8983617226662</v>
+        <v>197.8983617226656</v>
       </c>
       <c r="O7" t="n">
-        <v>182.7911678289082</v>
+        <v>182.7911678289077</v>
       </c>
       <c r="P7" t="n">
-        <v>156.4094222276687</v>
+        <v>156.4094222276683</v>
       </c>
       <c r="Q7" t="n">
-        <v>108.2897766189911</v>
+        <v>108.2897766189908</v>
       </c>
       <c r="R7" t="n">
-        <v>58.14800077706326</v>
+        <v>58.14800077706309</v>
       </c>
       <c r="S7" t="n">
-        <v>22.53734684383952</v>
+        <v>22.53734684383945</v>
       </c>
       <c r="T7" t="n">
-        <v>5.525588428067071</v>
+        <v>5.525588428067055</v>
       </c>
       <c r="U7" t="n">
-        <v>0.07053942674128186</v>
+        <v>0.07053942674128165</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,46 +31513,46 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H8" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I8" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J8" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L8" t="n">
-        <v>592.5726450767381</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R8" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T8" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U8" t="n">
         <v>0.3004027793744847</v>
@@ -31595,10 +31595,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H9" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J9" t="n">
         <v>189.8178475575841</v>
@@ -31607,34 +31607,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M9" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N9" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P9" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R9" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31677,7 +31677,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.65387972335772</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J10" t="n">
         <v>119.0856174753787</v>
@@ -31692,10 +31692,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N10" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O10" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P10" t="n">
         <v>203.7180217169137</v>
@@ -31704,16 +31704,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S10" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.952877700718647</v>
+        <v>4.95287770071866</v>
       </c>
       <c r="H11" t="n">
-        <v>50.72365875248485</v>
+        <v>50.72365875248499</v>
       </c>
       <c r="I11" t="n">
-        <v>190.9458175569558</v>
+        <v>190.9458175569563</v>
       </c>
       <c r="J11" t="n">
-        <v>420.3693037513696</v>
+        <v>420.3693037513708</v>
       </c>
       <c r="K11" t="n">
-        <v>630.02461682279</v>
+        <v>630.0246168227917</v>
       </c>
       <c r="L11" t="n">
-        <v>781.6012477561585</v>
+        <v>781.6012477561607</v>
       </c>
       <c r="M11" t="n">
-        <v>869.6819865663136</v>
+        <v>869.681986566316</v>
       </c>
       <c r="N11" t="n">
-        <v>883.7543503334806</v>
+        <v>883.754350333483</v>
       </c>
       <c r="O11" t="n">
-        <v>834.5041726969595</v>
+        <v>834.5041726969617</v>
       </c>
       <c r="P11" t="n">
-        <v>712.2300044604677</v>
+        <v>712.2300044604698</v>
       </c>
       <c r="Q11" t="n">
-        <v>534.8550718034811</v>
+        <v>534.8550718034826</v>
       </c>
       <c r="R11" t="n">
-        <v>311.1212038677679</v>
+        <v>311.1212038677688</v>
       </c>
       <c r="S11" t="n">
-        <v>112.8637006051263</v>
+        <v>112.8637006051266</v>
       </c>
       <c r="T11" t="n">
-        <v>21.68122213489589</v>
+        <v>21.68122213489595</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3962302160574916</v>
+        <v>0.3962302160574927</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.650023196191115</v>
+        <v>2.650023196191123</v>
       </c>
       <c r="H12" t="n">
-        <v>25.59364507900367</v>
+        <v>25.59364507900374</v>
       </c>
       <c r="I12" t="n">
-        <v>91.23983372850991</v>
+        <v>91.23983372851016</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>250.369077496285</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>427.9206316410903</v>
       </c>
       <c r="L12" t="n">
-        <v>495.5609268757843</v>
+        <v>575.3920979273752</v>
       </c>
       <c r="M12" t="n">
-        <v>671.4554387893014</v>
+        <v>671.4554387893032</v>
       </c>
       <c r="N12" t="n">
-        <v>689.2268662760393</v>
+        <v>689.2268662760413</v>
       </c>
       <c r="O12" t="n">
-        <v>630.5079312446467</v>
+        <v>630.5079312446484</v>
       </c>
       <c r="P12" t="n">
-        <v>506.0382013849509</v>
+        <v>210.8877491630281</v>
       </c>
       <c r="Q12" t="n">
-        <v>338.2731364120449</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>49.22301857837441</v>
+        <v>49.22301857837455</v>
       </c>
       <c r="T12" t="n">
-        <v>10.68145314605103</v>
+        <v>10.68145314605106</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1743436313283629</v>
+        <v>0.1743436313283634</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.221690427637935</v>
+        <v>2.221690427637941</v>
       </c>
       <c r="H13" t="n">
-        <v>19.75284762027184</v>
+        <v>19.75284762027189</v>
       </c>
       <c r="I13" t="n">
-        <v>66.81229031478448</v>
+        <v>66.81229031478466</v>
       </c>
       <c r="J13" t="n">
-        <v>157.073513234002</v>
+        <v>157.0735132340024</v>
       </c>
       <c r="K13" t="n">
-        <v>258.1200333201164</v>
+        <v>258.1200333201171</v>
       </c>
       <c r="L13" t="n">
-        <v>330.3047750326436</v>
+        <v>330.3047750326446</v>
       </c>
       <c r="M13" t="n">
-        <v>348.2600731250992</v>
+        <v>348.2600731251002</v>
       </c>
       <c r="N13" t="n">
-        <v>339.9792269857217</v>
+        <v>339.9792269857227</v>
       </c>
       <c r="O13" t="n">
-        <v>314.0258433537693</v>
+        <v>314.0258433537703</v>
       </c>
       <c r="P13" t="n">
-        <v>268.7033586299552</v>
+        <v>268.703358629956</v>
       </c>
       <c r="Q13" t="n">
-        <v>186.0362775361184</v>
+        <v>186.0362775361189</v>
       </c>
       <c r="R13" t="n">
-        <v>99.89528050088386</v>
+        <v>99.89528050088414</v>
       </c>
       <c r="S13" t="n">
-        <v>38.71800499801746</v>
+        <v>38.71800499801756</v>
       </c>
       <c r="T13" t="n">
-        <v>9.492677281725721</v>
+        <v>9.492677281725747</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1211831142347966</v>
+        <v>0.1211831142347969</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,46 +31987,46 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.459461502377426</v>
+        <v>5.459461502377425</v>
       </c>
       <c r="H14" t="n">
-        <v>55.91171011122283</v>
+        <v>55.91171011122282</v>
       </c>
       <c r="I14" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J14" t="n">
-        <v>463.3649706874065</v>
+        <v>463.3649706874064</v>
       </c>
       <c r="K14" t="n">
-        <v>694.4639760830431</v>
+        <v>694.463976083043</v>
       </c>
       <c r="L14" t="n">
-        <v>861.5439710364265</v>
+        <v>861.5439710364263</v>
       </c>
       <c r="M14" t="n">
-        <v>958.633669529331</v>
+        <v>958.6336695293307</v>
       </c>
       <c r="N14" t="n">
-        <v>974.1453645229609</v>
+        <v>974.1453645229608</v>
       </c>
       <c r="O14" t="n">
-        <v>919.8578442086953</v>
+        <v>919.8578442086952</v>
       </c>
       <c r="P14" t="n">
-        <v>785.0773883687525</v>
+        <v>785.0773883687524</v>
       </c>
       <c r="Q14" t="n">
-        <v>589.5604233148607</v>
+        <v>589.5604233148606</v>
       </c>
       <c r="R14" t="n">
-        <v>342.9428985987163</v>
+        <v>342.9428985987162</v>
       </c>
       <c r="S14" t="n">
         <v>124.4074789854257</v>
       </c>
       <c r="T14" t="n">
-        <v>23.8987927266572</v>
+        <v>23.89879272665719</v>
       </c>
       <c r="U14" t="n">
         <v>0.436756920190194</v>
@@ -32069,28 +32069,28 @@
         <v>2.921069425540905</v>
       </c>
       <c r="H15" t="n">
-        <v>28.21138103088191</v>
+        <v>28.2113810308819</v>
       </c>
       <c r="I15" t="n">
-        <v>100.5719078530531</v>
+        <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>275.9770021735818</v>
       </c>
       <c r="K15" t="n">
         <v>471.6886536848224</v>
       </c>
       <c r="L15" t="n">
-        <v>634.2436048745725</v>
+        <v>634.2436048745724</v>
       </c>
       <c r="M15" t="n">
-        <v>740.1323715504302</v>
+        <v>740.1323715504301</v>
       </c>
       <c r="N15" t="n">
-        <v>635.1690548209136</v>
+        <v>759.7214730927637</v>
       </c>
       <c r="O15" t="n">
-        <v>694.9967242426205</v>
+        <v>422.3544583169088</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -32102,10 +32102,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.25758340862161</v>
+        <v>54.2575834086216</v>
       </c>
       <c r="T15" t="n">
-        <v>11.77395965821093</v>
+        <v>11.77395965821092</v>
       </c>
       <c r="U15" t="n">
         <v>0.1921756201013754</v>
@@ -32151,7 +32151,7 @@
         <v>21.77318271548567</v>
       </c>
       <c r="I16" t="n">
-        <v>73.64589818284927</v>
+        <v>73.64589818284925</v>
       </c>
       <c r="J16" t="n">
         <v>173.1391022273333</v>
@@ -32160,16 +32160,16 @@
         <v>284.5207311900886</v>
       </c>
       <c r="L16" t="n">
-        <v>364.0885788640619</v>
+        <v>364.0885788640618</v>
       </c>
       <c r="M16" t="n">
-        <v>383.8803574265022</v>
+        <v>383.8803574265021</v>
       </c>
       <c r="N16" t="n">
-        <v>374.7525405416875</v>
+        <v>374.7525405416874</v>
       </c>
       <c r="O16" t="n">
-        <v>346.1446266465963</v>
+        <v>346.1446266465962</v>
       </c>
       <c r="P16" t="n">
         <v>296.1865264282424</v>
@@ -32181,7 +32181,7 @@
         <v>110.1126397860859</v>
       </c>
       <c r="S16" t="n">
-        <v>42.67810967851329</v>
+        <v>42.67810967851328</v>
       </c>
       <c r="T16" t="n">
         <v>10.46359496551969</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.459461502377427</v>
+        <v>5.459461502377425</v>
       </c>
       <c r="H17" t="n">
-        <v>55.91171011122284</v>
+        <v>55.91171011122282</v>
       </c>
       <c r="I17" t="n">
-        <v>210.475889570406</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J17" t="n">
-        <v>463.3649706874066</v>
+        <v>463.3649706874064</v>
       </c>
       <c r="K17" t="n">
-        <v>694.4639760830432</v>
+        <v>694.463976083043</v>
       </c>
       <c r="L17" t="n">
-        <v>861.5439710364266</v>
+        <v>861.5439710364263</v>
       </c>
       <c r="M17" t="n">
-        <v>958.6336695293311</v>
+        <v>958.6336695293307</v>
       </c>
       <c r="N17" t="n">
-        <v>974.145364522961</v>
+        <v>974.1453645229608</v>
       </c>
       <c r="O17" t="n">
-        <v>919.8578442086955</v>
+        <v>919.8578442086952</v>
       </c>
       <c r="P17" t="n">
-        <v>785.0773883687526</v>
+        <v>785.0773883687524</v>
       </c>
       <c r="Q17" t="n">
-        <v>589.5604233148608</v>
+        <v>589.5604233148606</v>
       </c>
       <c r="R17" t="n">
-        <v>342.9428985987163</v>
+        <v>342.9428985987162</v>
       </c>
       <c r="S17" t="n">
-        <v>124.4074789854258</v>
+        <v>124.4074789854257</v>
       </c>
       <c r="T17" t="n">
-        <v>23.8987927266572</v>
+        <v>23.89879272665719</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4367569201901941</v>
+        <v>0.436756920190194</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,34 +32303,34 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.921069425540906</v>
+        <v>2.921069425540905</v>
       </c>
       <c r="H18" t="n">
-        <v>28.21138103088191</v>
+        <v>28.2113810308819</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>275.9770021735818</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>471.6886536848224</v>
       </c>
       <c r="L18" t="n">
-        <v>634.2436048745726</v>
+        <v>634.2436048745724</v>
       </c>
       <c r="M18" t="n">
-        <v>740.1323715504303</v>
+        <v>740.1323715504301</v>
       </c>
       <c r="N18" t="n">
-        <v>759.721473092764</v>
+        <v>759.7214730927637</v>
       </c>
       <c r="O18" t="n">
-        <v>481.5193127503716</v>
+        <v>422.3544583169088</v>
       </c>
       <c r="P18" t="n">
-        <v>557.7961431982455</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -32339,13 +32339,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.25758340862161</v>
+        <v>54.2575834086216</v>
       </c>
       <c r="T18" t="n">
-        <v>11.77395965821093</v>
+        <v>11.77395965821092</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1921756201013755</v>
+        <v>0.1921756201013754</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,40 +32385,40 @@
         <v>2.448926481291843</v>
       </c>
       <c r="H19" t="n">
-        <v>21.77318271548568</v>
+        <v>21.77318271548567</v>
       </c>
       <c r="I19" t="n">
-        <v>73.64589818284928</v>
+        <v>73.64589818284925</v>
       </c>
       <c r="J19" t="n">
         <v>173.1391022273333</v>
       </c>
       <c r="K19" t="n">
-        <v>284.5207311900887</v>
+        <v>284.5207311900886</v>
       </c>
       <c r="L19" t="n">
-        <v>364.088578864062</v>
+        <v>364.0885788640618</v>
       </c>
       <c r="M19" t="n">
-        <v>383.8803574265023</v>
+        <v>383.8803574265021</v>
       </c>
       <c r="N19" t="n">
-        <v>374.7525405416876</v>
+        <v>374.7525405416874</v>
       </c>
       <c r="O19" t="n">
-        <v>346.1446266465964</v>
+        <v>346.1446266465962</v>
       </c>
       <c r="P19" t="n">
-        <v>296.1865264282425</v>
+        <v>296.1865264282424</v>
       </c>
       <c r="Q19" t="n">
-        <v>205.0641983561743</v>
+        <v>205.0641983561742</v>
       </c>
       <c r="R19" t="n">
         <v>110.1126397860859</v>
       </c>
       <c r="S19" t="n">
-        <v>42.67810967851329</v>
+        <v>42.67810967851328</v>
       </c>
       <c r="T19" t="n">
         <v>10.46359496551969</v>
@@ -32546,16 +32546,16 @@
         <v>28.21138103088191</v>
       </c>
       <c r="I21" t="n">
-        <v>100.5719078530531</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>139.4267020936821</v>
+        <v>275.9770021735818</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>471.6886536848224</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>634.2436048745725</v>
       </c>
       <c r="M21" t="n">
         <v>740.1323715504302</v>
@@ -32564,16 +32564,16 @@
         <v>759.7214730927639</v>
       </c>
       <c r="O21" t="n">
-        <v>694.9967242426205</v>
+        <v>422.3544583169084</v>
       </c>
       <c r="P21" t="n">
-        <v>557.7961431982454</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>372.8719498286953</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>181.3625385436714</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>54.25758340862161</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,31 +32777,31 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>551.7051287319848</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -32813,13 +32813,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32947,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,31 +33014,31 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>551.7051287319848</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33050,13 +33050,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33184,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,34 +33251,34 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
         <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P30" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
@@ -33287,13 +33287,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33421,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,31 +33488,31 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>551.7051287319848</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33524,13 +33524,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33646,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33658,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,10 +33725,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
         <v>99.52238</v>
@@ -33737,16 +33737,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
         <v>400.5469039565762</v>
@@ -33761,13 +33761,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,7 +33883,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33895,31 +33895,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>732.4825987614911</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,7 +34120,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34132,31 +34132,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,31 +34199,31 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34235,13 +34235,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,7 +34357,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34369,31 +34369,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,34 +34436,34 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>182.7118610708583</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
@@ -34472,13 +34472,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>97.32166909127285</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>75.43840481763041</v>
@@ -34793,7 +34793,7 @@
         <v>171.655098309828</v>
       </c>
       <c r="P3" t="n">
-        <v>118.2400000337409</v>
+        <v>215.5616691250137</v>
       </c>
       <c r="Q3" t="n">
         <v>28.61687799649636</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>63.64668233653299</v>
+        <v>63.64668233653231</v>
       </c>
       <c r="K5" t="n">
-        <v>146.6409066533918</v>
+        <v>146.6409066533907</v>
       </c>
       <c r="L5" t="n">
-        <v>219.1955185067058</v>
+        <v>219.1955185067045</v>
       </c>
       <c r="M5" t="n">
-        <v>275.8865795451834</v>
+        <v>275.8865795451819</v>
       </c>
       <c r="N5" t="n">
-        <v>285.0111253366348</v>
+        <v>285.0111253366334</v>
       </c>
       <c r="O5" t="n">
-        <v>255.6579628353743</v>
+        <v>255.6579628353729</v>
       </c>
       <c r="P5" t="n">
-        <v>183.3486606068507</v>
+        <v>183.3486606068495</v>
       </c>
       <c r="Q5" t="n">
-        <v>89.0278683767821</v>
+        <v>89.02786837678119</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>40.22824346985002</v>
+        <v>18.89960175702944</v>
       </c>
       <c r="K6" t="n">
-        <v>111.2466970859556</v>
+        <v>342.6526265346217</v>
       </c>
       <c r="L6" t="n">
-        <v>196.3753585384536</v>
+        <v>196.3753585384526</v>
       </c>
       <c r="M6" t="n">
-        <v>248.7131730803004</v>
+        <v>248.7131730802993</v>
       </c>
       <c r="N6" t="n">
-        <v>269.8500574861752</v>
+        <v>269.850057486174</v>
       </c>
       <c r="O6" t="n">
-        <v>224.4158455374629</v>
+        <v>224.4158455374618</v>
       </c>
       <c r="P6" t="n">
-        <v>160.5851511535589</v>
+        <v>160.5851511535581</v>
       </c>
       <c r="Q6" t="n">
-        <v>267.000777845699</v>
+        <v>56.92349010984927</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,25 +35094,25 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>127.9794871330473</v>
+        <v>127.9794871330469</v>
       </c>
       <c r="L7" t="n">
-        <v>219.8569894148032</v>
+        <v>219.8569894148026</v>
       </c>
       <c r="M7" t="n">
-        <v>242.3024328451608</v>
+        <v>242.3024328451602</v>
       </c>
       <c r="N7" t="n">
-        <v>242.0305341018947</v>
+        <v>242.0305341018942</v>
       </c>
       <c r="O7" t="n">
-        <v>207.3762957429479</v>
+        <v>207.3762957429474</v>
       </c>
       <c r="P7" t="n">
-        <v>153.6879814925622</v>
+        <v>153.6879814925618</v>
       </c>
       <c r="Q7" t="n">
-        <v>22.12773336729668</v>
+        <v>22.12773336729637</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K8" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P8" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939907</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>189.0712562313263</v>
+        <v>62.98022089091739</v>
       </c>
       <c r="K9" t="n">
-        <v>379.9148430313199</v>
+        <v>397.6203974676407</v>
       </c>
       <c r="L9" t="n">
-        <v>297.6803606378502</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820406</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N9" t="n">
-        <v>391.197099592874</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O9" t="n">
-        <v>335.4246819961231</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P9" t="n">
-        <v>249.6795291235323</v>
+        <v>568.1422977634694</v>
       </c>
       <c r="Q9" t="n">
-        <v>326.5580100667037</v>
+        <v>116.4807223308545</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K10" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L10" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M10" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N10" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O10" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P10" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.88175545805406</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>239.3233992246833</v>
+        <v>239.3233992246845</v>
       </c>
       <c r="K11" t="n">
-        <v>409.9347657778094</v>
+        <v>409.9347657778112</v>
       </c>
       <c r="L11" t="n">
-        <v>545.8348327861713</v>
+        <v>545.8348327861734</v>
       </c>
       <c r="M11" t="n">
-        <v>639.3357533390409</v>
+        <v>639.3357533390433</v>
       </c>
       <c r="N11" t="n">
-        <v>654.3412867368897</v>
+        <v>654.341286736892</v>
       </c>
       <c r="O11" t="n">
-        <v>604.4059612752727</v>
+        <v>604.405961275275</v>
       </c>
       <c r="P11" t="n">
-        <v>480.9970087051982</v>
+        <v>480.9970087052002</v>
       </c>
       <c r="Q11" t="n">
-        <v>312.5493819290316</v>
+        <v>312.5493819290331</v>
       </c>
       <c r="R11" t="n">
-        <v>95.53566605363579</v>
+        <v>95.5356660536367</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>123.5314508296183</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>290.0791926667313</v>
       </c>
       <c r="L12" t="n">
-        <v>357.0065470959102</v>
+        <v>436.837718147501</v>
       </c>
       <c r="M12" t="n">
-        <v>529.321404867283</v>
+        <v>529.3214048672849</v>
       </c>
       <c r="N12" t="n">
-        <v>557.8851541927061</v>
+        <v>557.885154192708</v>
       </c>
       <c r="O12" t="n">
-        <v>487.9116868002022</v>
+        <v>487.9116868002039</v>
       </c>
       <c r="P12" t="n">
-        <v>372.0637939706206</v>
+        <v>76.91334174869783</v>
       </c>
       <c r="Q12" t="n">
-        <v>198.2913623260234</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>63.71433311732923</v>
+        <v>63.71433311732966</v>
       </c>
       <c r="K13" t="n">
-        <v>235.8505414942336</v>
+        <v>235.8505414942342</v>
       </c>
       <c r="L13" t="n">
-        <v>357.8948002929598</v>
+        <v>357.8948002929607</v>
       </c>
       <c r="M13" t="n">
-        <v>387.8439500869398</v>
+        <v>387.8439500869408</v>
       </c>
       <c r="N13" t="n">
-        <v>384.1113993649503</v>
+        <v>384.1113993649512</v>
       </c>
       <c r="O13" t="n">
-        <v>338.610971267809</v>
+        <v>338.6109712678099</v>
       </c>
       <c r="P13" t="n">
-        <v>265.9819178948487</v>
+        <v>265.9819178948495</v>
       </c>
       <c r="Q13" t="n">
-        <v>99.87423428442399</v>
+        <v>99.87423428442453</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>282.3190661607202</v>
+        <v>282.3190661607201</v>
       </c>
       <c r="K14" t="n">
-        <v>474.3741250380626</v>
+        <v>474.3741250380625</v>
       </c>
       <c r="L14" t="n">
-        <v>625.7775560664393</v>
+        <v>625.777556066439</v>
       </c>
       <c r="M14" t="n">
-        <v>728.2874363020583</v>
+        <v>728.287436302058</v>
       </c>
       <c r="N14" t="n">
-        <v>744.73230092637</v>
+        <v>744.7323009263698</v>
       </c>
       <c r="O14" t="n">
-        <v>689.7596327870085</v>
+        <v>689.7596327870084</v>
       </c>
       <c r="P14" t="n">
-        <v>553.844392613483</v>
+        <v>553.8443926134828</v>
       </c>
       <c r="Q14" t="n">
-        <v>367.2547334404112</v>
+        <v>367.2547334404111</v>
       </c>
       <c r="R14" t="n">
-        <v>127.3573607845842</v>
+        <v>127.3573607845841</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,25 +35720,25 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.049527853053121</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>149.1393755069151</v>
       </c>
       <c r="K15" t="n">
         <v>333.8472147104634</v>
       </c>
       <c r="L15" t="n">
-        <v>495.6892250946983</v>
+        <v>495.6892250946982</v>
       </c>
       <c r="M15" t="n">
-        <v>597.9983376284119</v>
+        <v>597.9983376284117</v>
       </c>
       <c r="N15" t="n">
-        <v>503.8273427375803</v>
+        <v>628.3797610094305</v>
       </c>
       <c r="O15" t="n">
-        <v>552.4004797981761</v>
+        <v>279.7582138724644</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>79.77992211066052</v>
+        <v>79.77992211066049</v>
       </c>
       <c r="K16" t="n">
         <v>262.2512393642057</v>
@@ -35811,19 +35811,19 @@
         <v>391.678604124378</v>
       </c>
       <c r="M16" t="n">
-        <v>423.4642343883428</v>
+        <v>423.4642343883427</v>
       </c>
       <c r="N16" t="n">
         <v>418.8847129209161</v>
       </c>
       <c r="O16" t="n">
-        <v>370.729754560636</v>
+        <v>370.7297545606359</v>
       </c>
       <c r="P16" t="n">
-        <v>293.4650856931359</v>
+        <v>293.4650856931358</v>
       </c>
       <c r="Q16" t="n">
-        <v>118.9021551044799</v>
+        <v>118.9021551044798</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,31 +35881,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>282.3190661607203</v>
+        <v>282.3190661607201</v>
       </c>
       <c r="K17" t="n">
-        <v>474.3741250380627</v>
+        <v>474.3741250380625</v>
       </c>
       <c r="L17" t="n">
-        <v>625.7775560664393</v>
+        <v>625.777556066439</v>
       </c>
       <c r="M17" t="n">
-        <v>728.2874363020584</v>
+        <v>728.287436302058</v>
       </c>
       <c r="N17" t="n">
-        <v>744.73230092637</v>
+        <v>744.7323009263698</v>
       </c>
       <c r="O17" t="n">
-        <v>689.7596327870087</v>
+        <v>689.7596327870084</v>
       </c>
       <c r="P17" t="n">
-        <v>553.844392613483</v>
+        <v>553.8443926134828</v>
       </c>
       <c r="Q17" t="n">
-        <v>367.2547334404113</v>
+        <v>367.2547334404111</v>
       </c>
       <c r="R17" t="n">
-        <v>127.3573607845842</v>
+        <v>127.3573607845841</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,25 +35960,25 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>149.1393755069151</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>333.8472147104634</v>
       </c>
       <c r="L18" t="n">
-        <v>495.6892250946984</v>
+        <v>495.6892250946982</v>
       </c>
       <c r="M18" t="n">
-        <v>597.9983376284119</v>
+        <v>597.9983376284117</v>
       </c>
       <c r="N18" t="n">
-        <v>628.3797610094307</v>
+        <v>628.3797610094305</v>
       </c>
       <c r="O18" t="n">
-        <v>338.9230683059271</v>
+        <v>279.7582138724644</v>
       </c>
       <c r="P18" t="n">
-        <v>423.8217357839153</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36039,28 +36039,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>79.77992211066055</v>
+        <v>79.77992211066049</v>
       </c>
       <c r="K19" t="n">
-        <v>262.2512393642058</v>
+        <v>262.2512393642057</v>
       </c>
       <c r="L19" t="n">
-        <v>391.6786041243781</v>
+        <v>391.678604124378</v>
       </c>
       <c r="M19" t="n">
-        <v>423.4642343883428</v>
+        <v>423.4642343883427</v>
       </c>
       <c r="N19" t="n">
-        <v>418.8847129209162</v>
+        <v>418.8847129209161</v>
       </c>
       <c r="O19" t="n">
-        <v>370.729754560636</v>
+        <v>370.7297545606359</v>
       </c>
       <c r="P19" t="n">
-        <v>293.465085693136</v>
+        <v>293.4650856931358</v>
       </c>
       <c r="Q19" t="n">
-        <v>118.9021551044799</v>
+        <v>118.9021551044798</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36194,16 +36194,16 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.049527853053121</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>12.58907542701537</v>
+        <v>149.1393755069151</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>333.8472147104634</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>495.6892250946983</v>
       </c>
       <c r="M21" t="n">
         <v>597.9983376284119</v>
@@ -36212,16 +36212,16 @@
         <v>628.3797610094306</v>
       </c>
       <c r="O21" t="n">
-        <v>552.4004797981761</v>
+        <v>279.758213872464</v>
       </c>
       <c r="P21" t="n">
-        <v>423.8217357839152</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>232.8901757426738</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>35.68303457970742</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,22 +36434,22 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>409.1088842875403</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,22 +36671,22 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>409.1088842875403</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,25 +36908,25 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P30" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -36987,22 +36987,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,22 +37145,22 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>409.1088842875403</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37224,22 +37224,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37388,13 +37388,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
         <v>257.9506595121318</v>
@@ -37461,22 +37461,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,34 +37616,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>590.3485648394727</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,22 +37698,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,7 +37853,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37862,16 +37862,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -37935,22 +37935,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295569</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,28 +38090,28 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>55.87423440419165</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
@@ -38172,22 +38172,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096396</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
